--- a/temp.xlsx
+++ b/temp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>ОТЧЕТ (Контрольный лист)</t>
   </si>
@@ -74,43 +74,22 @@
     <t>Дек</t>
   </si>
   <si>
+    <t>0 | 1</t>
+  </si>
+  <si>
     <t>0 | 0</t>
   </si>
   <si>
-    <t>0 | 0 | 0</t>
-  </si>
-  <si>
-    <t>0 | 1</t>
-  </si>
-  <si>
-    <t>0 | 0 | 3</t>
+    <t>1 | 0</t>
   </si>
   <si>
     <t>1 | 1</t>
   </si>
   <si>
-    <t>0 | 0 | 1</t>
-  </si>
-  <si>
-    <t>1 | 0</t>
-  </si>
-  <si>
-    <t>0 | 2 | 0</t>
-  </si>
-  <si>
-    <t>2 | 2</t>
+    <t>0 | 2</t>
   </si>
   <si>
     <t>2 | 0</t>
-  </si>
-  <si>
-    <t>2 | 3 | 3 | 0</t>
-  </si>
-  <si>
-    <t>0 | 2</t>
-  </si>
-  <si>
-    <t>0 | 1 | 0</t>
   </si>
   <si>
     <t>1 | 2</t>
@@ -119,34 +98,7 @@
     <t>2 | 1</t>
   </si>
   <si>
-    <t>0 | 3 | 2</t>
-  </si>
-  <si>
-    <t>1 | 0 | 1</t>
-  </si>
-  <si>
-    <t>0 | 1 | 1</t>
-  </si>
-  <si>
-    <t>0 | 2 | 1</t>
-  </si>
-  <si>
-    <t>1 | 1 | 0</t>
-  </si>
-  <si>
-    <t>1 | 0 | 2</t>
-  </si>
-  <si>
-    <t>2 | 1 | 0</t>
-  </si>
-  <si>
-    <t>1 | 2 | 1</t>
-  </si>
-  <si>
-    <t>2 | 0 | 0</t>
-  </si>
-  <si>
-    <t>2 | 2 | 1</t>
+    <t>1 | 3</t>
   </si>
   <si>
     <t>Подпись дезинфектора</t>
@@ -640,10 +592,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1199"/>
+  <dimension ref="A1:Z1133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N205" sqref="N205"/>
+      <selection activeCell="N139" sqref="N139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15.75" defaultColWidth="14.43" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -860,20 +812,16 @@
     <row r="7" spans="1:26">
       <c r="A7" s="12"/>
       <c r="B7" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -898,20 +846,16 @@
     <row r="8" spans="1:26">
       <c r="A8" s="12"/>
       <c r="B8" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -936,20 +880,16 @@
     <row r="9" spans="1:26">
       <c r="A9" s="12"/>
       <c r="B9" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -974,20 +914,16 @@
     <row r="10" spans="1:26">
       <c r="A10" s="12"/>
       <c r="B10" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1012,20 +948,16 @@
     <row r="11" spans="1:26">
       <c r="A11" s="12"/>
       <c r="B11" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1050,20 +982,16 @@
     <row r="12" spans="1:26">
       <c r="A12" s="12"/>
       <c r="B12" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1088,20 +1016,16 @@
     <row r="13" spans="1:26">
       <c r="A13" s="12"/>
       <c r="B13" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1126,20 +1050,16 @@
     <row r="14" spans="1:26">
       <c r="A14" s="12"/>
       <c r="B14" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1164,20 +1084,16 @@
     <row r="15" spans="1:26">
       <c r="A15" s="12"/>
       <c r="B15" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1202,20 +1118,16 @@
     <row r="16" spans="1:26">
       <c r="A16" s="12"/>
       <c r="B16" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1240,20 +1152,16 @@
     <row r="17" spans="1:26">
       <c r="A17" s="12"/>
       <c r="B17" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1278,20 +1186,16 @@
     <row r="18" spans="1:26">
       <c r="A18" s="12"/>
       <c r="B18" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1316,20 +1220,16 @@
     <row r="19" spans="1:26">
       <c r="A19" s="12"/>
       <c r="B19" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1354,20 +1254,16 @@
     <row r="20" spans="1:26">
       <c r="A20" s="12"/>
       <c r="B20" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1392,20 +1288,16 @@
     <row r="21" spans="1:26">
       <c r="A21" s="12"/>
       <c r="B21" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1430,20 +1322,16 @@
     <row r="22" spans="1:26">
       <c r="A22" s="12"/>
       <c r="B22" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1468,20 +1356,16 @@
     <row r="23" spans="1:26">
       <c r="A23" s="12"/>
       <c r="B23" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -1506,20 +1390,16 @@
     <row r="24" spans="1:26">
       <c r="A24" s="12"/>
       <c r="B24" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D24" s="12">
+        <v>3</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -1544,20 +1424,16 @@
     <row r="25" spans="1:26">
       <c r="A25" s="12"/>
       <c r="B25" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1582,20 +1458,16 @@
     <row r="26" spans="1:26">
       <c r="A26" s="12"/>
       <c r="B26" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1620,20 +1492,16 @@
     <row r="27" spans="1:26">
       <c r="A27" s="12"/>
       <c r="B27" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1658,20 +1526,16 @@
     <row r="28" spans="1:26">
       <c r="A28" s="12"/>
       <c r="B28" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -1696,20 +1560,16 @@
     <row r="29" spans="1:26">
       <c r="A29" s="12"/>
       <c r="B29" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1734,20 +1594,16 @@
     <row r="30" spans="1:26">
       <c r="A30" s="12"/>
       <c r="B30" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -1772,20 +1628,16 @@
     <row r="31" spans="1:26">
       <c r="A31" s="12"/>
       <c r="B31" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="12">
+        <v>22</v>
+      </c>
+      <c r="D31" s="12">
         <v>1</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -1810,20 +1662,16 @@
     <row r="32" spans="1:26">
       <c r="A32" s="12"/>
       <c r="B32" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -1848,20 +1696,16 @@
     <row r="33" spans="1:26">
       <c r="A33" s="12"/>
       <c r="B33" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -1886,20 +1730,16 @@
     <row r="34" spans="1:26">
       <c r="A34" s="12"/>
       <c r="B34" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -1924,20 +1764,16 @@
     <row r="35" spans="1:26">
       <c r="A35" s="12"/>
       <c r="B35" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -1962,20 +1798,16 @@
     <row r="36" spans="1:26">
       <c r="A36" s="12"/>
       <c r="B36" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -2000,20 +1832,16 @@
     <row r="37" spans="1:26">
       <c r="A37" s="12"/>
       <c r="B37" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -2038,20 +1866,16 @@
     <row r="38" spans="1:26">
       <c r="A38" s="12"/>
       <c r="B38" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -2076,20 +1900,16 @@
     <row r="39" spans="1:26">
       <c r="A39" s="12"/>
       <c r="B39" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -2114,20 +1934,16 @@
     <row r="40" spans="1:26">
       <c r="A40" s="12"/>
       <c r="B40" s="12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -2152,20 +1968,16 @@
     <row r="41" spans="1:26">
       <c r="A41" s="12"/>
       <c r="B41" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="12">
-        <v>2</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -2190,20 +2002,16 @@
     <row r="42" spans="1:26">
       <c r="A42" s="12"/>
       <c r="B42" s="12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -2228,20 +2036,16 @@
     <row r="43" spans="1:26">
       <c r="A43" s="12"/>
       <c r="B43" s="12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -2266,20 +2070,16 @@
     <row r="44" spans="1:26">
       <c r="A44" s="12"/>
       <c r="B44" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="12">
-        <v>2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -2304,20 +2104,16 @@
     <row r="45" spans="1:26">
       <c r="A45" s="12"/>
       <c r="B45" s="12">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="12">
-        <v>0</v>
-      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -2342,20 +2138,16 @@
     <row r="46" spans="1:26">
       <c r="A46" s="12"/>
       <c r="B46" s="12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -2380,20 +2172,16 @@
     <row r="47" spans="1:26">
       <c r="A47" s="12"/>
       <c r="B47" s="12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -2418,20 +2206,16 @@
     <row r="48" spans="1:26">
       <c r="A48" s="12"/>
       <c r="B48" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -2456,20 +2240,16 @@
     <row r="49" spans="1:26">
       <c r="A49" s="12"/>
       <c r="B49" s="12">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="12">
+        <v>19</v>
+      </c>
+      <c r="D49" s="12">
         <v>1</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -2494,20 +2274,16 @@
     <row r="50" spans="1:26">
       <c r="A50" s="12"/>
       <c r="B50" s="12">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -2532,20 +2308,16 @@
     <row r="51" spans="1:26">
       <c r="A51" s="12"/>
       <c r="B51" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -2570,20 +2342,16 @@
     <row r="52" spans="1:26">
       <c r="A52" s="12"/>
       <c r="B52" s="12">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="12">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -2608,20 +2376,16 @@
     <row r="53" spans="1:26">
       <c r="A53" s="12"/>
       <c r="B53" s="12">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="12">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -2646,20 +2410,16 @@
     <row r="54" spans="1:26">
       <c r="A54" s="12"/>
       <c r="B54" s="12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -2684,20 +2444,16 @@
     <row r="55" spans="1:26">
       <c r="A55" s="12"/>
       <c r="B55" s="12">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -2722,20 +2478,16 @@
     <row r="56" spans="1:26">
       <c r="A56" s="12"/>
       <c r="B56" s="12">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -2760,20 +2512,16 @@
     <row r="57" spans="1:26">
       <c r="A57" s="12"/>
       <c r="B57" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="12">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -2798,20 +2546,16 @@
     <row r="58" spans="1:26">
       <c r="A58" s="12"/>
       <c r="B58" s="12">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -2836,20 +2580,16 @@
     <row r="59" spans="1:26">
       <c r="A59" s="12"/>
       <c r="B59" s="12">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -2874,20 +2614,16 @@
     <row r="60" spans="1:26">
       <c r="A60" s="12"/>
       <c r="B60" s="12">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -2912,20 +2648,16 @@
     <row r="61" spans="1:26">
       <c r="A61" s="12"/>
       <c r="B61" s="12">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -2950,20 +2682,16 @@
     <row r="62" spans="1:26">
       <c r="A62" s="12"/>
       <c r="B62" s="12">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -2988,20 +2716,16 @@
     <row r="63" spans="1:26">
       <c r="A63" s="12"/>
       <c r="B63" s="12">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -3026,20 +2750,16 @@
     <row r="64" spans="1:26">
       <c r="A64" s="12"/>
       <c r="B64" s="12">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -3064,20 +2784,16 @@
     <row r="65" spans="1:26">
       <c r="A65" s="12"/>
       <c r="B65" s="12">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -3102,20 +2818,16 @@
     <row r="66" spans="1:26">
       <c r="A66" s="12"/>
       <c r="B66" s="12">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D66" s="12">
+        <v>1</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -3140,20 +2852,16 @@
     <row r="67" spans="1:26">
       <c r="A67" s="12"/>
       <c r="B67" s="12">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D67" s="12">
+        <v>1</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -3178,20 +2886,16 @@
     <row r="68" spans="1:26">
       <c r="A68" s="12"/>
       <c r="B68" s="12">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D68" s="12">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -3216,20 +2920,16 @@
     <row r="69" spans="1:26">
       <c r="A69" s="12"/>
       <c r="B69" s="12">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D69" s="12">
+        <v>1</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -3254,20 +2954,16 @@
     <row r="70" spans="1:26">
       <c r="A70" s="12"/>
       <c r="B70" s="12">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="12">
+      <c r="D70" s="12">
         <v>0</v>
       </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
@@ -3292,20 +2988,16 @@
     <row r="71" spans="1:26">
       <c r="A71" s="12"/>
       <c r="B71" s="12">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D71" s="12">
+        <v>1</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -3330,20 +3022,16 @@
     <row r="72" spans="1:26">
       <c r="A72" s="12"/>
       <c r="B72" s="12">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D72" s="12">
+        <v>1</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -3368,20 +3056,16 @@
     <row r="73" spans="1:26">
       <c r="A73" s="12"/>
       <c r="B73" s="12">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" s="12">
-        <v>0</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -3406,20 +3090,16 @@
     <row r="74" spans="1:26">
       <c r="A74" s="12"/>
       <c r="B74" s="12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D74" s="12">
+        <v>1</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -3444,20 +3124,16 @@
     <row r="75" spans="1:26">
       <c r="A75" s="12"/>
       <c r="B75" s="12">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D75" s="12">
+        <v>1</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -3482,20 +3158,16 @@
     <row r="76" spans="1:26">
       <c r="A76" s="12"/>
       <c r="B76" s="12">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D76" s="12">
+        <v>1</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
@@ -3520,20 +3192,16 @@
     <row r="77" spans="1:26">
       <c r="A77" s="12"/>
       <c r="B77" s="12">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D77" s="12">
+        <v>1</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
@@ -3558,20 +3226,16 @@
     <row r="78" spans="1:26">
       <c r="A78" s="12"/>
       <c r="B78" s="12">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
@@ -3596,20 +3260,16 @@
     <row r="79" spans="1:26">
       <c r="A79" s="12"/>
       <c r="B79" s="12">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
@@ -3634,20 +3294,16 @@
     <row r="80" spans="1:26">
       <c r="A80" s="12"/>
       <c r="B80" s="12">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D80" s="12">
+        <v>1</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
@@ -3672,20 +3328,16 @@
     <row r="81" spans="1:26">
       <c r="A81" s="12"/>
       <c r="B81" s="12">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="12">
-        <v>1</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -3710,20 +3362,16 @@
     <row r="82" spans="1:26">
       <c r="A82" s="12"/>
       <c r="B82" s="12">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -3748,20 +3396,16 @@
     <row r="83" spans="1:26">
       <c r="A83" s="12"/>
       <c r="B83" s="12">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -3786,20 +3430,16 @@
     <row r="84" spans="1:26">
       <c r="A84" s="12"/>
       <c r="B84" s="12">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D84" s="12">
+        <v>1</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
@@ -3824,20 +3464,16 @@
     <row r="85" spans="1:26">
       <c r="A85" s="12"/>
       <c r="B85" s="12">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D85" s="12">
+        <v>1</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
@@ -3862,20 +3498,16 @@
     <row r="86" spans="1:26">
       <c r="A86" s="12"/>
       <c r="B86" s="12">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D86" s="12">
+        <v>1</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
@@ -3900,20 +3532,16 @@
     <row r="87" spans="1:26">
       <c r="A87" s="12"/>
       <c r="B87" s="12">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D87" s="12">
+        <v>1</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
@@ -3938,20 +3566,16 @@
     <row r="88" spans="1:26">
       <c r="A88" s="12"/>
       <c r="B88" s="12">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
@@ -3976,20 +3600,16 @@
     <row r="89" spans="1:26">
       <c r="A89" s="12"/>
       <c r="B89" s="12">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="12">
+        <v>19</v>
+      </c>
+      <c r="D89" s="12">
         <v>0</v>
       </c>
-      <c r="F89" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
@@ -4014,20 +3634,16 @@
     <row r="90" spans="1:26">
       <c r="A90" s="12"/>
       <c r="B90" s="12">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D90" s="12">
+        <v>1</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
@@ -4052,20 +3668,16 @@
     <row r="91" spans="1:26">
       <c r="A91" s="12"/>
       <c r="B91" s="12">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D91" s="12">
+        <v>1</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
@@ -4090,20 +3702,16 @@
     <row r="92" spans="1:26">
       <c r="A92" s="12"/>
       <c r="B92" s="12">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D92" s="12">
+        <v>1</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
@@ -4128,20 +3736,16 @@
     <row r="93" spans="1:26">
       <c r="A93" s="12"/>
       <c r="B93" s="12">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D93" s="12">
+        <v>1</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -4166,20 +3770,16 @@
     <row r="94" spans="1:26">
       <c r="A94" s="12"/>
       <c r="B94" s="12">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D94" s="12">
+        <v>1</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
@@ -4204,20 +3804,16 @@
     <row r="95" spans="1:26">
       <c r="A95" s="12"/>
       <c r="B95" s="12">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="D95" s="12">
+        <v>1</v>
+      </c>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
@@ -4242,20 +3838,16 @@
     <row r="96" spans="1:26">
       <c r="A96" s="12"/>
       <c r="B96" s="12">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D96" s="12">
+        <v>1</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
@@ -4280,20 +3872,16 @@
     <row r="97" spans="1:26">
       <c r="A97" s="12"/>
       <c r="B97" s="12">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="12">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D97" s="12">
+        <v>1</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
@@ -4318,20 +3906,16 @@
     <row r="98" spans="1:26">
       <c r="A98" s="12"/>
       <c r="B98" s="12">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
@@ -4356,20 +3940,16 @@
     <row r="99" spans="1:26">
       <c r="A99" s="12"/>
       <c r="B99" s="12">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E99" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
@@ -4394,20 +3974,16 @@
     <row r="100" spans="1:26">
       <c r="A100" s="12"/>
       <c r="B100" s="12">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D100" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D100" s="12">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
@@ -4432,20 +4008,16 @@
     <row r="101" spans="1:26">
       <c r="A101" s="12"/>
       <c r="B101" s="12">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D101" s="12">
+        <v>1</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -4470,20 +4042,16 @@
     <row r="102" spans="1:26">
       <c r="A102" s="12"/>
       <c r="B102" s="12">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
@@ -4508,20 +4076,16 @@
     <row r="103" spans="1:26">
       <c r="A103" s="12"/>
       <c r="B103" s="12">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D103" s="12">
+        <v>1</v>
+      </c>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
@@ -4546,20 +4110,16 @@
     <row r="104" spans="1:26">
       <c r="A104" s="12"/>
       <c r="B104" s="12">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104" s="12">
-        <v>2</v>
-      </c>
+      <c r="D104" s="12">
+        <v>1</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -4584,20 +4144,16 @@
     <row r="105" spans="1:26">
       <c r="A105" s="12"/>
       <c r="B105" s="12">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" s="12">
-        <v>0</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D105" s="12">
+        <v>1</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
@@ -4622,20 +4178,16 @@
     <row r="106" spans="1:26">
       <c r="A106" s="12"/>
       <c r="B106" s="12">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
@@ -4660,20 +4212,16 @@
     <row r="107" spans="1:26">
       <c r="A107" s="12"/>
       <c r="B107" s="12">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E107" s="12">
+        <v>21</v>
+      </c>
+      <c r="D107" s="12">
         <v>0</v>
       </c>
-      <c r="F107" s="12">
-        <v>0</v>
-      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -4698,20 +4246,16 @@
     <row r="108" spans="1:26">
       <c r="A108" s="12"/>
       <c r="B108" s="12">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
@@ -4736,20 +4280,16 @@
     <row r="109" spans="1:26">
       <c r="A109" s="12"/>
       <c r="B109" s="12">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
@@ -4774,20 +4314,16 @@
     <row r="110" spans="1:26">
       <c r="A110" s="12"/>
       <c r="B110" s="12">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="12">
+      <c r="D110" s="12">
         <v>0</v>
       </c>
-      <c r="F110" s="12">
-        <v>0</v>
-      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
@@ -4812,20 +4348,16 @@
     <row r="111" spans="1:26">
       <c r="A111" s="12"/>
       <c r="B111" s="12">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="12">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D111" s="12">
+        <v>1</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
@@ -4850,20 +4382,16 @@
     <row r="112" spans="1:26">
       <c r="A112" s="12"/>
       <c r="B112" s="12">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D112" s="12">
+        <v>0</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
@@ -4888,20 +4416,16 @@
     <row r="113" spans="1:26">
       <c r="A113" s="12"/>
       <c r="B113" s="12">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D113" s="12">
+        <v>1</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
@@ -4926,20 +4450,16 @@
     <row r="114" spans="1:26">
       <c r="A114" s="12"/>
       <c r="B114" s="12">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="12">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D114" s="12">
+        <v>1</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
@@ -4964,20 +4484,16 @@
     <row r="115" spans="1:26">
       <c r="A115" s="12"/>
       <c r="B115" s="12">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D115" s="12">
+        <v>1</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
@@ -5002,20 +4518,16 @@
     <row r="116" spans="1:26">
       <c r="A116" s="12"/>
       <c r="B116" s="12">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="D116" s="12">
+        <v>0</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
@@ -5040,20 +4552,16 @@
     <row r="117" spans="1:26">
       <c r="A117" s="12"/>
       <c r="B117" s="12">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D117" s="12">
+        <v>1</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
@@ -5078,20 +4586,16 @@
     <row r="118" spans="1:26">
       <c r="A118" s="12"/>
       <c r="B118" s="12">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D118" s="12">
+        <v>1</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
@@ -5116,20 +4620,16 @@
     <row r="119" spans="1:26">
       <c r="A119" s="12"/>
       <c r="B119" s="12">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D119" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E119" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="D119" s="12">
+        <v>1</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
@@ -5154,20 +4654,16 @@
     <row r="120" spans="1:26">
       <c r="A120" s="12"/>
       <c r="B120" s="12">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D120" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" s="12">
+      <c r="D120" s="12">
         <v>1</v>
       </c>
-      <c r="F120" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
@@ -5192,20 +4688,16 @@
     <row r="121" spans="1:26">
       <c r="A121" s="12"/>
       <c r="B121" s="12">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -5230,20 +4722,16 @@
     <row r="122" spans="1:26">
       <c r="A122" s="12"/>
       <c r="B122" s="12">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D122" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D122" s="12">
+        <v>1</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
@@ -5268,20 +4756,16 @@
     <row r="123" spans="1:26">
       <c r="A123" s="12"/>
       <c r="B123" s="12">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F123" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D123" s="12">
+        <v>1</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
@@ -5306,20 +4790,16 @@
     <row r="124" spans="1:26">
       <c r="A124" s="12"/>
       <c r="B124" s="12">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D124" s="12">
+        <v>1</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
@@ -5344,20 +4824,16 @@
     <row r="125" spans="1:26">
       <c r="A125" s="12"/>
       <c r="B125" s="12">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E125" s="12">
+      <c r="D125" s="12">
         <v>0</v>
       </c>
-      <c r="F125" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -5382,20 +4858,16 @@
     <row r="126" spans="1:26">
       <c r="A126" s="12"/>
       <c r="B126" s="12">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
@@ -5420,20 +4892,16 @@
     <row r="127" spans="1:26">
       <c r="A127" s="12"/>
       <c r="B127" s="12">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
@@ -5458,20 +4926,16 @@
     <row r="128" spans="1:26">
       <c r="A128" s="12"/>
       <c r="B128" s="12">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
@@ -5496,20 +4960,16 @@
     <row r="129" spans="1:26">
       <c r="A129" s="12"/>
       <c r="B129" s="12">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F129" s="12">
+        <v>22</v>
+      </c>
+      <c r="D129" s="12">
         <v>0</v>
       </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -5534,20 +4994,16 @@
     <row r="130" spans="1:26">
       <c r="A130" s="12"/>
       <c r="B130" s="12">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D130" s="12">
+        <v>2</v>
+      </c>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
@@ -5572,20 +5028,16 @@
     <row r="131" spans="1:26">
       <c r="A131" s="12"/>
       <c r="B131" s="12">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D131" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E131" s="12">
-        <v>1</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D131" s="12">
+        <v>0</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
@@ -5610,20 +5062,16 @@
     <row r="132" spans="1:26">
       <c r="A132" s="12"/>
       <c r="B132" s="12">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D132" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0</v>
+      </c>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -5648,20 +5096,16 @@
     <row r="133" spans="1:26">
       <c r="A133" s="12"/>
       <c r="B133" s="12">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D133" s="12">
+        <v>1</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
@@ -5686,20 +5130,16 @@
     <row r="134" spans="1:26">
       <c r="A134" s="12"/>
       <c r="B134" s="12">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F134" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="D134" s="12">
+        <v>1</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -5724,20 +5164,16 @@
     <row r="135" spans="1:26">
       <c r="A135" s="12"/>
       <c r="B135" s="12">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E135" s="12">
+        <v>22</v>
+      </c>
+      <c r="D135" s="12">
         <v>0</v>
       </c>
-      <c r="F135" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
@@ -5762,20 +5198,16 @@
     <row r="136" spans="1:26">
       <c r="A136" s="12"/>
       <c r="B136" s="12">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D136" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D136" s="12">
+        <v>1</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -5800,20 +5232,16 @@
     <row r="137" spans="1:26">
       <c r="A137" s="12"/>
       <c r="B137" s="12">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0</v>
+      </c>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -5838,20 +5266,16 @@
     <row r="138" spans="1:26">
       <c r="A138" s="12"/>
       <c r="B138" s="12">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D138" s="12">
+        <v>1</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -5876,20 +5300,16 @@
     <row r="139" spans="1:26">
       <c r="A139" s="12"/>
       <c r="B139" s="12">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E139" s="12">
+        <v>27</v>
+      </c>
+      <c r="D139" s="12">
         <v>1</v>
       </c>
-      <c r="F139" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -5912,30 +5332,20 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140" spans="1:26">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12">
-        <v>136</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
@@ -5950,30 +5360,20 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141" spans="1:26">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12">
-        <v>137</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
@@ -5988,30 +5388,20 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142" spans="1:26">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12">
-        <v>138</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E142" s="12">
-        <v>0</v>
-      </c>
-      <c r="F142" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
@@ -6026,30 +5416,22 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143" spans="1:26">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12">
-        <v>139</v>
-      </c>
-      <c r="C143" s="12" t="s">
+      <c r="A143" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D143" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
@@ -6064,30 +5446,20 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144" spans="1:26">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12">
-        <v>140</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
@@ -6102,30 +5474,24 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145" spans="1:26">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12">
-        <v>141</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F145" s="12">
-        <v>0</v>
-      </c>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
+      <c r="A145" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
@@ -6140,30 +5506,22 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146" spans="1:26">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12">
-        <v>142</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="12">
-        <v>1</v>
-      </c>
-      <c r="F146" s="12">
-        <v>1</v>
-      </c>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
+      <c r="A146" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
@@ -6178,30 +5536,22 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147" spans="1:26">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12">
-        <v>143</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
+      <c r="A147" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
@@ -6216,30 +5566,22 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148" spans="1:26">
-      <c r="A148" s="12"/>
-      <c r="B148" s="12">
-        <v>144</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" s="12">
-        <v>0</v>
-      </c>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
+      <c r="A148" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
@@ -6254,30 +5596,22 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149" spans="1:26">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12">
-        <v>145</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
+      <c r="A149" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
@@ -6292,30 +5626,20 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150" spans="1:26">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12">
-        <v>146</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-      <c r="M150" s="12"/>
-      <c r="N150" s="12"/>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
@@ -6330,30 +5654,20 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151" spans="1:26">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12">
-        <v>147</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F151" s="12">
-        <v>0</v>
-      </c>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
@@ -6368,30 +5682,20 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152" spans="1:26">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12">
-        <v>148</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
@@ -6406,30 +5710,20 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153" spans="1:26">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12">
-        <v>149</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
@@ -6444,30 +5738,20 @@
       <c r="Z153" s="2"/>
     </row>
     <row r="154" spans="1:26">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12">
-        <v>150</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F154" s="12">
-        <v>2</v>
-      </c>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
@@ -6482,30 +5766,20 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155" spans="1:26">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12">
-        <v>151</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
@@ -6520,30 +5794,20 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156" spans="1:26">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12">
-        <v>152</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
-      <c r="M156" s="12"/>
-      <c r="N156" s="12"/>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
@@ -6558,30 +5822,20 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157" spans="1:26">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12">
-        <v>153</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E157" s="12">
-        <v>0</v>
-      </c>
-      <c r="F157" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
@@ -6596,30 +5850,20 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158" spans="1:26">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12">
-        <v>154</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" s="12">
-        <v>0</v>
-      </c>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="12"/>
-      <c r="M158" s="12"/>
-      <c r="N158" s="12"/>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
@@ -6634,30 +5878,20 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159" spans="1:26">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12">
-        <v>155</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F159" s="12">
-        <v>0</v>
-      </c>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
-      <c r="M159" s="12"/>
-      <c r="N159" s="12"/>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
@@ -6672,30 +5906,20 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160" spans="1:26">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12">
-        <v>156</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F160" s="12">
-        <v>0</v>
-      </c>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
-      <c r="M160" s="12"/>
-      <c r="N160" s="12"/>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
@@ -6710,30 +5934,20 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161" spans="1:26">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12">
-        <v>157</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F161" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
-      <c r="M161" s="12"/>
-      <c r="N161" s="12"/>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
@@ -6748,30 +5962,20 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162" spans="1:26">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12">
-        <v>158</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F162" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
@@ -6786,30 +5990,20 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163" spans="1:26">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12">
-        <v>159</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="12"/>
-      <c r="M163" s="12"/>
-      <c r="N163" s="12"/>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
@@ -6824,30 +6018,20 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164" spans="1:26">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12">
-        <v>160</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="12"/>
-      <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
@@ -6862,30 +6046,20 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165" spans="1:26">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12">
-        <v>161</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E165" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G165" s="12"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
@@ -6900,30 +6074,20 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166" spans="1:26">
-      <c r="A166" s="12"/>
-      <c r="B166" s="12">
-        <v>162</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F166" s="12">
-        <v>0</v>
-      </c>
-      <c r="G166" s="12"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="12"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12"/>
-      <c r="M166" s="12"/>
-      <c r="N166" s="12"/>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
@@ -6938,30 +6102,20 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167" spans="1:26">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12">
-        <v>163</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" s="12"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
-      <c r="M167" s="12"/>
-      <c r="N167" s="12"/>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
@@ -6976,30 +6130,20 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168" spans="1:26">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12">
-        <v>164</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D168" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="12"/>
-      <c r="M168" s="12"/>
-      <c r="N168" s="12"/>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
@@ -7014,30 +6158,20 @@
       <c r="Z168" s="2"/>
     </row>
     <row r="169" spans="1:26">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12">
-        <v>165</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F169" s="12">
-        <v>0</v>
-      </c>
-      <c r="G169" s="12"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="12"/>
-      <c r="M169" s="12"/>
-      <c r="N169" s="12"/>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
@@ -7052,30 +6186,20 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170" spans="1:26">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12">
-        <v>166</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E170" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" s="12"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="12"/>
-      <c r="M170" s="12"/>
-      <c r="N170" s="12"/>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
@@ -7090,30 +6214,20 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171" spans="1:26">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12">
-        <v>167</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" s="12"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
-      <c r="J171" s="12"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="12"/>
-      <c r="M171" s="12"/>
-      <c r="N171" s="12"/>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
@@ -7128,30 +6242,20 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172" spans="1:26">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12">
-        <v>168</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F172" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
-      <c r="M172" s="12"/>
-      <c r="N172" s="12"/>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
@@ -7166,30 +6270,20 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173" spans="1:26">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12">
-        <v>169</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F173" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
-      <c r="K173" s="12"/>
-      <c r="L173" s="12"/>
-      <c r="M173" s="12"/>
-      <c r="N173" s="12"/>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
@@ -7204,30 +6298,20 @@
       <c r="Z173" s="2"/>
     </row>
     <row r="174" spans="1:26">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12">
-        <v>170</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F174" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="12"/>
-      <c r="M174" s="12"/>
-      <c r="N174" s="12"/>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
@@ -7242,30 +6326,20 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175" spans="1:26">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12">
-        <v>171</v>
-      </c>
-      <c r="C175" s="12">
-        <v>0</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="12">
-        <v>1</v>
-      </c>
-      <c r="F175" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
@@ -7280,30 +6354,20 @@
       <c r="Z175" s="2"/>
     </row>
     <row r="176" spans="1:26">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12">
-        <v>172</v>
-      </c>
-      <c r="C176" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D176" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F176" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
@@ -7318,30 +6382,20 @@
       <c r="Z176" s="2"/>
     </row>
     <row r="177" spans="1:26">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12">
-        <v>173</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D177" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" s="12"/>
-      <c r="H177" s="12"/>
-      <c r="I177" s="12"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="12"/>
-      <c r="M177" s="12"/>
-      <c r="N177" s="12"/>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
@@ -7356,30 +6410,20 @@
       <c r="Z177" s="2"/>
     </row>
     <row r="178" spans="1:26">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12">
-        <v>174</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="12"/>
-      <c r="L178" s="12"/>
-      <c r="M178" s="12"/>
-      <c r="N178" s="12"/>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
@@ -7394,28 +6438,20 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179" spans="1:26">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12">
-        <v>175</v>
-      </c>
-      <c r="C179" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D179" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="12"/>
-      <c r="N179" s="12"/>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
@@ -7430,30 +6466,20 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180" spans="1:26">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12">
-        <v>176</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D180" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="12">
-        <v>0</v>
-      </c>
-      <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
-      <c r="I180" s="12"/>
-      <c r="J180" s="12"/>
-      <c r="K180" s="12"/>
-      <c r="L180" s="12"/>
-      <c r="M180" s="12"/>
-      <c r="N180" s="12"/>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
@@ -7468,30 +6494,20 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181" spans="1:26">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12">
-        <v>177</v>
-      </c>
-      <c r="C181" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E181" s="12">
-        <v>1</v>
-      </c>
-      <c r="F181" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
-      <c r="J181" s="12"/>
-      <c r="K181" s="12"/>
-      <c r="L181" s="12"/>
-      <c r="M181" s="12"/>
-      <c r="N181" s="12"/>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
@@ -7506,30 +6522,20 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182" spans="1:26">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12">
-        <v>178</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E182" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F182" s="12">
-        <v>1</v>
-      </c>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
-      <c r="J182" s="12"/>
-      <c r="K182" s="12"/>
-      <c r="L182" s="12"/>
-      <c r="M182" s="12"/>
-      <c r="N182" s="12"/>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
@@ -7544,30 +6550,20 @@
       <c r="Z182" s="2"/>
     </row>
     <row r="183" spans="1:26">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12">
-        <v>179</v>
-      </c>
-      <c r="C183" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E183" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F183" s="12">
-        <v>0</v>
-      </c>
-      <c r="G183" s="12"/>
-      <c r="H183" s="12"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="12"/>
-      <c r="M183" s="12"/>
-      <c r="N183" s="12"/>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
@@ -7582,30 +6578,20 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184" spans="1:26">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12">
-        <v>180</v>
-      </c>
-      <c r="C184" s="12">
-        <v>0</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F184" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G184" s="12"/>
-      <c r="H184" s="12"/>
-      <c r="I184" s="12"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="12"/>
-      <c r="M184" s="12"/>
-      <c r="N184" s="12"/>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
@@ -7620,30 +6606,20 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185" spans="1:26">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12">
-        <v>181</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D185" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E185" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F185" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" s="12"/>
-      <c r="H185" s="12"/>
-      <c r="I185" s="12"/>
-      <c r="J185" s="12"/>
-      <c r="K185" s="12"/>
-      <c r="L185" s="12"/>
-      <c r="M185" s="12"/>
-      <c r="N185" s="12"/>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
@@ -7658,30 +6634,20 @@
       <c r="Z185" s="2"/>
     </row>
     <row r="186" spans="1:26">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12">
-        <v>182</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D186" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E186" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F186" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G186" s="12"/>
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="12"/>
-      <c r="M186" s="12"/>
-      <c r="N186" s="12"/>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
@@ -7696,30 +6662,20 @@
       <c r="Z186" s="2"/>
     </row>
     <row r="187" spans="1:26">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12">
-        <v>183</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D187" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E187" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187" s="12">
-        <v>1</v>
-      </c>
-      <c r="G187" s="12"/>
-      <c r="H187" s="12"/>
-      <c r="I187" s="12"/>
-      <c r="J187" s="12"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="12"/>
-      <c r="M187" s="12"/>
-      <c r="N187" s="12"/>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
@@ -7734,30 +6690,20 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188" spans="1:26">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12">
-        <v>184</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D188" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F188" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G188" s="12"/>
-      <c r="H188" s="12"/>
-      <c r="I188" s="12"/>
-      <c r="J188" s="12"/>
-      <c r="K188" s="12"/>
-      <c r="L188" s="12"/>
-      <c r="M188" s="12"/>
-      <c r="N188" s="12"/>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
@@ -7772,30 +6718,20 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189" spans="1:26">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12">
-        <v>185</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E189" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F189" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-      <c r="M189" s="12"/>
-      <c r="N189" s="12"/>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
@@ -7810,30 +6746,20 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190" spans="1:26">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12">
-        <v>186</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D190" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E190" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F190" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" s="12"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="12"/>
-      <c r="J190" s="12"/>
-      <c r="K190" s="12"/>
-      <c r="L190" s="12"/>
-      <c r="M190" s="12"/>
-      <c r="N190" s="12"/>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
@@ -7848,30 +6774,20 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191" spans="1:26">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12">
-        <v>187</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D191" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E191" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F191" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="12"/>
-      <c r="L191" s="12"/>
-      <c r="M191" s="12"/>
-      <c r="N191" s="12"/>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
       <c r="Q191" s="2"/>
@@ -7886,30 +6802,20 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192" spans="1:26">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12">
-        <v>188</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E192" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F192" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" s="12"/>
-      <c r="H192" s="12"/>
-      <c r="I192" s="12"/>
-      <c r="J192" s="12"/>
-      <c r="K192" s="12"/>
-      <c r="L192" s="12"/>
-      <c r="M192" s="12"/>
-      <c r="N192" s="12"/>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
@@ -7924,30 +6830,20 @@
       <c r="Z192" s="2"/>
     </row>
     <row r="193" spans="1:26">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12">
-        <v>189</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E193" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F193" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" s="12"/>
-      <c r="H193" s="12"/>
-      <c r="I193" s="12"/>
-      <c r="J193" s="12"/>
-      <c r="K193" s="12"/>
-      <c r="L193" s="12"/>
-      <c r="M193" s="12"/>
-      <c r="N193" s="12"/>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
       <c r="Q193" s="2"/>
@@ -7962,30 +6858,20 @@
       <c r="Z193" s="2"/>
     </row>
     <row r="194" spans="1:26">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12">
-        <v>190</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F194" s="12">
-        <v>1</v>
-      </c>
-      <c r="G194" s="12"/>
-      <c r="H194" s="12"/>
-      <c r="I194" s="12"/>
-      <c r="J194" s="12"/>
-      <c r="K194" s="12"/>
-      <c r="L194" s="12"/>
-      <c r="M194" s="12"/>
-      <c r="N194" s="12"/>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
       <c r="Q194" s="2"/>
@@ -8000,30 +6886,20 @@
       <c r="Z194" s="2"/>
     </row>
     <row r="195" spans="1:26">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12">
-        <v>191</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F195" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G195" s="12"/>
-      <c r="H195" s="12"/>
-      <c r="I195" s="12"/>
-      <c r="J195" s="12"/>
-      <c r="K195" s="12"/>
-      <c r="L195" s="12"/>
-      <c r="M195" s="12"/>
-      <c r="N195" s="12"/>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
       <c r="Q195" s="2"/>
@@ -8038,30 +6914,20 @@
       <c r="Z195" s="2"/>
     </row>
     <row r="196" spans="1:26">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12">
-        <v>192</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D196" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E196" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G196" s="12"/>
-      <c r="H196" s="12"/>
-      <c r="I196" s="12"/>
-      <c r="J196" s="12"/>
-      <c r="K196" s="12"/>
-      <c r="L196" s="12"/>
-      <c r="M196" s="12"/>
-      <c r="N196" s="12"/>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
       <c r="Q196" s="2"/>
@@ -8076,30 +6942,20 @@
       <c r="Z196" s="2"/>
     </row>
     <row r="197" spans="1:26">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12">
-        <v>193</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F197" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
-      <c r="J197" s="12"/>
-      <c r="K197" s="12"/>
-      <c r="L197" s="12"/>
-      <c r="M197" s="12"/>
-      <c r="N197" s="12"/>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
       <c r="Q197" s="2"/>
@@ -8114,30 +6970,20 @@
       <c r="Z197" s="2"/>
     </row>
     <row r="198" spans="1:26">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12">
-        <v>194</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="12"/>
-      <c r="K198" s="12"/>
-      <c r="L198" s="12"/>
-      <c r="M198" s="12"/>
-      <c r="N198" s="12"/>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
@@ -8152,30 +6998,20 @@
       <c r="Z198" s="2"/>
     </row>
     <row r="199" spans="1:26">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12">
-        <v>195</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D199" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E199" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F199" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" s="12"/>
-      <c r="H199" s="12"/>
-      <c r="I199" s="12"/>
-      <c r="J199" s="12"/>
-      <c r="K199" s="12"/>
-      <c r="L199" s="12"/>
-      <c r="M199" s="12"/>
-      <c r="N199" s="12"/>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
@@ -8190,30 +7026,20 @@
       <c r="Z199" s="2"/>
     </row>
     <row r="200" spans="1:26">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12">
-        <v>196</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D200" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E200" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F200" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" s="12"/>
-      <c r="H200" s="12"/>
-      <c r="I200" s="12"/>
-      <c r="J200" s="12"/>
-      <c r="K200" s="12"/>
-      <c r="L200" s="12"/>
-      <c r="M200" s="12"/>
-      <c r="N200" s="12"/>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
@@ -8228,30 +7054,20 @@
       <c r="Z200" s="2"/>
     </row>
     <row r="201" spans="1:26">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12">
-        <v>197</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D201" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E201" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F201" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
-      <c r="J201" s="12"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="12"/>
-      <c r="M201" s="12"/>
-      <c r="N201" s="12"/>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
@@ -8266,30 +7082,20 @@
       <c r="Z201" s="2"/>
     </row>
     <row r="202" spans="1:26">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12">
-        <v>198</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E202" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F202" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" s="12"/>
-      <c r="H202" s="12"/>
-      <c r="I202" s="12"/>
-      <c r="J202" s="12"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
-      <c r="M202" s="12"/>
-      <c r="N202" s="12"/>
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
       <c r="Q202" s="2"/>
@@ -8304,30 +7110,20 @@
       <c r="Z202" s="2"/>
     </row>
     <row r="203" spans="1:26">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12">
-        <v>199</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D203" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E203" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F203" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" s="12"/>
-      <c r="H203" s="12"/>
-      <c r="I203" s="12"/>
-      <c r="J203" s="12"/>
-      <c r="K203" s="12"/>
-      <c r="L203" s="12"/>
-      <c r="M203" s="12"/>
-      <c r="N203" s="12"/>
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
       <c r="Q203" s="2"/>
@@ -8342,30 +7138,20 @@
       <c r="Z203" s="2"/>
     </row>
     <row r="204" spans="1:26">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12">
-        <v>200</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D204" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E204" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F204" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
-      <c r="J204" s="12"/>
-      <c r="K204" s="12"/>
-      <c r="L204" s="12"/>
-      <c r="M204" s="12"/>
-      <c r="N204" s="12"/>
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
       <c r="Q204" s="2"/>
@@ -8380,30 +7166,20 @@
       <c r="Z204" s="2"/>
     </row>
     <row r="205" spans="1:26">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12">
-        <v>201</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D205" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E205" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" s="12"/>
-      <c r="H205" s="12"/>
-      <c r="I205" s="12"/>
-      <c r="J205" s="12"/>
-      <c r="K205" s="12"/>
-      <c r="L205" s="12"/>
-      <c r="M205" s="12"/>
-      <c r="N205" s="12"/>
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
       <c r="Q205" s="2"/>
@@ -8502,18 +7278,16 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209" spans="1:26">
-      <c r="A209" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
@@ -8532,16 +7306,16 @@
       <c r="Z209" s="2"/>
     </row>
     <row r="210" spans="1:26">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
@@ -8560,20 +7334,16 @@
       <c r="Z210" s="2"/>
     </row>
     <row r="211" spans="1:26">
-      <c r="A211" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="11"/>
-      <c r="G211" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
@@ -8592,18 +7362,16 @@
       <c r="Z211" s="2"/>
     </row>
     <row r="212" spans="1:26">
-      <c r="A212" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
@@ -8622,18 +7390,16 @@
       <c r="Z212" s="2"/>
     </row>
     <row r="213" spans="1:26">
-      <c r="A213" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
@@ -8652,18 +7418,16 @@
       <c r="Z213" s="2"/>
     </row>
     <row r="214" spans="1:26">
-      <c r="A214" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
@@ -8682,18 +7446,16 @@
       <c r="Z214" s="2"/>
     </row>
     <row r="215" spans="1:26">
-      <c r="A215" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
@@ -34415,1862 +33177,14 @@
       <c r="Y1133" s="2"/>
       <c r="Z1133" s="2"/>
     </row>
-    <row r="1134" spans="1:26">
-      <c r="A1134" s="2"/>
-      <c r="B1134" s="2"/>
-      <c r="C1134" s="2"/>
-      <c r="D1134" s="2"/>
-      <c r="E1134" s="2"/>
-      <c r="F1134" s="2"/>
-      <c r="G1134" s="2"/>
-      <c r="H1134" s="2"/>
-      <c r="I1134" s="2"/>
-      <c r="J1134" s="2"/>
-      <c r="K1134" s="2"/>
-      <c r="L1134" s="2"/>
-      <c r="M1134" s="2"/>
-      <c r="N1134" s="2"/>
-      <c r="O1134" s="2"/>
-      <c r="P1134" s="2"/>
-      <c r="Q1134" s="2"/>
-      <c r="R1134" s="2"/>
-      <c r="S1134" s="2"/>
-      <c r="T1134" s="2"/>
-      <c r="U1134" s="2"/>
-      <c r="V1134" s="2"/>
-      <c r="W1134" s="2"/>
-      <c r="X1134" s="2"/>
-      <c r="Y1134" s="2"/>
-      <c r="Z1134" s="2"/>
-    </row>
-    <row r="1135" spans="1:26">
-      <c r="A1135" s="2"/>
-      <c r="B1135" s="2"/>
-      <c r="C1135" s="2"/>
-      <c r="D1135" s="2"/>
-      <c r="E1135" s="2"/>
-      <c r="F1135" s="2"/>
-      <c r="G1135" s="2"/>
-      <c r="H1135" s="2"/>
-      <c r="I1135" s="2"/>
-      <c r="J1135" s="2"/>
-      <c r="K1135" s="2"/>
-      <c r="L1135" s="2"/>
-      <c r="M1135" s="2"/>
-      <c r="N1135" s="2"/>
-      <c r="O1135" s="2"/>
-      <c r="P1135" s="2"/>
-      <c r="Q1135" s="2"/>
-      <c r="R1135" s="2"/>
-      <c r="S1135" s="2"/>
-      <c r="T1135" s="2"/>
-      <c r="U1135" s="2"/>
-      <c r="V1135" s="2"/>
-      <c r="W1135" s="2"/>
-      <c r="X1135" s="2"/>
-      <c r="Y1135" s="2"/>
-      <c r="Z1135" s="2"/>
-    </row>
-    <row r="1136" spans="1:26">
-      <c r="A1136" s="2"/>
-      <c r="B1136" s="2"/>
-      <c r="C1136" s="2"/>
-      <c r="D1136" s="2"/>
-      <c r="E1136" s="2"/>
-      <c r="F1136" s="2"/>
-      <c r="G1136" s="2"/>
-      <c r="H1136" s="2"/>
-      <c r="I1136" s="2"/>
-      <c r="J1136" s="2"/>
-      <c r="K1136" s="2"/>
-      <c r="L1136" s="2"/>
-      <c r="M1136" s="2"/>
-      <c r="N1136" s="2"/>
-      <c r="O1136" s="2"/>
-      <c r="P1136" s="2"/>
-      <c r="Q1136" s="2"/>
-      <c r="R1136" s="2"/>
-      <c r="S1136" s="2"/>
-      <c r="T1136" s="2"/>
-      <c r="U1136" s="2"/>
-      <c r="V1136" s="2"/>
-      <c r="W1136" s="2"/>
-      <c r="X1136" s="2"/>
-      <c r="Y1136" s="2"/>
-      <c r="Z1136" s="2"/>
-    </row>
-    <row r="1137" spans="1:26">
-      <c r="A1137" s="2"/>
-      <c r="B1137" s="2"/>
-      <c r="C1137" s="2"/>
-      <c r="D1137" s="2"/>
-      <c r="E1137" s="2"/>
-      <c r="F1137" s="2"/>
-      <c r="G1137" s="2"/>
-      <c r="H1137" s="2"/>
-      <c r="I1137" s="2"/>
-      <c r="J1137" s="2"/>
-      <c r="K1137" s="2"/>
-      <c r="L1137" s="2"/>
-      <c r="M1137" s="2"/>
-      <c r="N1137" s="2"/>
-      <c r="O1137" s="2"/>
-      <c r="P1137" s="2"/>
-      <c r="Q1137" s="2"/>
-      <c r="R1137" s="2"/>
-      <c r="S1137" s="2"/>
-      <c r="T1137" s="2"/>
-      <c r="U1137" s="2"/>
-      <c r="V1137" s="2"/>
-      <c r="W1137" s="2"/>
-      <c r="X1137" s="2"/>
-      <c r="Y1137" s="2"/>
-      <c r="Z1137" s="2"/>
-    </row>
-    <row r="1138" spans="1:26">
-      <c r="A1138" s="2"/>
-      <c r="B1138" s="2"/>
-      <c r="C1138" s="2"/>
-      <c r="D1138" s="2"/>
-      <c r="E1138" s="2"/>
-      <c r="F1138" s="2"/>
-      <c r="G1138" s="2"/>
-      <c r="H1138" s="2"/>
-      <c r="I1138" s="2"/>
-      <c r="J1138" s="2"/>
-      <c r="K1138" s="2"/>
-      <c r="L1138" s="2"/>
-      <c r="M1138" s="2"/>
-      <c r="N1138" s="2"/>
-      <c r="O1138" s="2"/>
-      <c r="P1138" s="2"/>
-      <c r="Q1138" s="2"/>
-      <c r="R1138" s="2"/>
-      <c r="S1138" s="2"/>
-      <c r="T1138" s="2"/>
-      <c r="U1138" s="2"/>
-      <c r="V1138" s="2"/>
-      <c r="W1138" s="2"/>
-      <c r="X1138" s="2"/>
-      <c r="Y1138" s="2"/>
-      <c r="Z1138" s="2"/>
-    </row>
-    <row r="1139" spans="1:26">
-      <c r="A1139" s="2"/>
-      <c r="B1139" s="2"/>
-      <c r="C1139" s="2"/>
-      <c r="D1139" s="2"/>
-      <c r="E1139" s="2"/>
-      <c r="F1139" s="2"/>
-      <c r="G1139" s="2"/>
-      <c r="H1139" s="2"/>
-      <c r="I1139" s="2"/>
-      <c r="J1139" s="2"/>
-      <c r="K1139" s="2"/>
-      <c r="L1139" s="2"/>
-      <c r="M1139" s="2"/>
-      <c r="N1139" s="2"/>
-      <c r="O1139" s="2"/>
-      <c r="P1139" s="2"/>
-      <c r="Q1139" s="2"/>
-      <c r="R1139" s="2"/>
-      <c r="S1139" s="2"/>
-      <c r="T1139" s="2"/>
-      <c r="U1139" s="2"/>
-      <c r="V1139" s="2"/>
-      <c r="W1139" s="2"/>
-      <c r="X1139" s="2"/>
-      <c r="Y1139" s="2"/>
-      <c r="Z1139" s="2"/>
-    </row>
-    <row r="1140" spans="1:26">
-      <c r="A1140" s="2"/>
-      <c r="B1140" s="2"/>
-      <c r="C1140" s="2"/>
-      <c r="D1140" s="2"/>
-      <c r="E1140" s="2"/>
-      <c r="F1140" s="2"/>
-      <c r="G1140" s="2"/>
-      <c r="H1140" s="2"/>
-      <c r="I1140" s="2"/>
-      <c r="J1140" s="2"/>
-      <c r="K1140" s="2"/>
-      <c r="L1140" s="2"/>
-      <c r="M1140" s="2"/>
-      <c r="N1140" s="2"/>
-      <c r="O1140" s="2"/>
-      <c r="P1140" s="2"/>
-      <c r="Q1140" s="2"/>
-      <c r="R1140" s="2"/>
-      <c r="S1140" s="2"/>
-      <c r="T1140" s="2"/>
-      <c r="U1140" s="2"/>
-      <c r="V1140" s="2"/>
-      <c r="W1140" s="2"/>
-      <c r="X1140" s="2"/>
-      <c r="Y1140" s="2"/>
-      <c r="Z1140" s="2"/>
-    </row>
-    <row r="1141" spans="1:26">
-      <c r="A1141" s="2"/>
-      <c r="B1141" s="2"/>
-      <c r="C1141" s="2"/>
-      <c r="D1141" s="2"/>
-      <c r="E1141" s="2"/>
-      <c r="F1141" s="2"/>
-      <c r="G1141" s="2"/>
-      <c r="H1141" s="2"/>
-      <c r="I1141" s="2"/>
-      <c r="J1141" s="2"/>
-      <c r="K1141" s="2"/>
-      <c r="L1141" s="2"/>
-      <c r="M1141" s="2"/>
-      <c r="N1141" s="2"/>
-      <c r="O1141" s="2"/>
-      <c r="P1141" s="2"/>
-      <c r="Q1141" s="2"/>
-      <c r="R1141" s="2"/>
-      <c r="S1141" s="2"/>
-      <c r="T1141" s="2"/>
-      <c r="U1141" s="2"/>
-      <c r="V1141" s="2"/>
-      <c r="W1141" s="2"/>
-      <c r="X1141" s="2"/>
-      <c r="Y1141" s="2"/>
-      <c r="Z1141" s="2"/>
-    </row>
-    <row r="1142" spans="1:26">
-      <c r="A1142" s="2"/>
-      <c r="B1142" s="2"/>
-      <c r="C1142" s="2"/>
-      <c r="D1142" s="2"/>
-      <c r="E1142" s="2"/>
-      <c r="F1142" s="2"/>
-      <c r="G1142" s="2"/>
-      <c r="H1142" s="2"/>
-      <c r="I1142" s="2"/>
-      <c r="J1142" s="2"/>
-      <c r="K1142" s="2"/>
-      <c r="L1142" s="2"/>
-      <c r="M1142" s="2"/>
-      <c r="N1142" s="2"/>
-      <c r="O1142" s="2"/>
-      <c r="P1142" s="2"/>
-      <c r="Q1142" s="2"/>
-      <c r="R1142" s="2"/>
-      <c r="S1142" s="2"/>
-      <c r="T1142" s="2"/>
-      <c r="U1142" s="2"/>
-      <c r="V1142" s="2"/>
-      <c r="W1142" s="2"/>
-      <c r="X1142" s="2"/>
-      <c r="Y1142" s="2"/>
-      <c r="Z1142" s="2"/>
-    </row>
-    <row r="1143" spans="1:26">
-      <c r="A1143" s="2"/>
-      <c r="B1143" s="2"/>
-      <c r="C1143" s="2"/>
-      <c r="D1143" s="2"/>
-      <c r="E1143" s="2"/>
-      <c r="F1143" s="2"/>
-      <c r="G1143" s="2"/>
-      <c r="H1143" s="2"/>
-      <c r="I1143" s="2"/>
-      <c r="J1143" s="2"/>
-      <c r="K1143" s="2"/>
-      <c r="L1143" s="2"/>
-      <c r="M1143" s="2"/>
-      <c r="N1143" s="2"/>
-      <c r="O1143" s="2"/>
-      <c r="P1143" s="2"/>
-      <c r="Q1143" s="2"/>
-      <c r="R1143" s="2"/>
-      <c r="S1143" s="2"/>
-      <c r="T1143" s="2"/>
-      <c r="U1143" s="2"/>
-      <c r="V1143" s="2"/>
-      <c r="W1143" s="2"/>
-      <c r="X1143" s="2"/>
-      <c r="Y1143" s="2"/>
-      <c r="Z1143" s="2"/>
-    </row>
-    <row r="1144" spans="1:26">
-      <c r="A1144" s="2"/>
-      <c r="B1144" s="2"/>
-      <c r="C1144" s="2"/>
-      <c r="D1144" s="2"/>
-      <c r="E1144" s="2"/>
-      <c r="F1144" s="2"/>
-      <c r="G1144" s="2"/>
-      <c r="H1144" s="2"/>
-      <c r="I1144" s="2"/>
-      <c r="J1144" s="2"/>
-      <c r="K1144" s="2"/>
-      <c r="L1144" s="2"/>
-      <c r="M1144" s="2"/>
-      <c r="N1144" s="2"/>
-      <c r="O1144" s="2"/>
-      <c r="P1144" s="2"/>
-      <c r="Q1144" s="2"/>
-      <c r="R1144" s="2"/>
-      <c r="S1144" s="2"/>
-      <c r="T1144" s="2"/>
-      <c r="U1144" s="2"/>
-      <c r="V1144" s="2"/>
-      <c r="W1144" s="2"/>
-      <c r="X1144" s="2"/>
-      <c r="Y1144" s="2"/>
-      <c r="Z1144" s="2"/>
-    </row>
-    <row r="1145" spans="1:26">
-      <c r="A1145" s="2"/>
-      <c r="B1145" s="2"/>
-      <c r="C1145" s="2"/>
-      <c r="D1145" s="2"/>
-      <c r="E1145" s="2"/>
-      <c r="F1145" s="2"/>
-      <c r="G1145" s="2"/>
-      <c r="H1145" s="2"/>
-      <c r="I1145" s="2"/>
-      <c r="J1145" s="2"/>
-      <c r="K1145" s="2"/>
-      <c r="L1145" s="2"/>
-      <c r="M1145" s="2"/>
-      <c r="N1145" s="2"/>
-      <c r="O1145" s="2"/>
-      <c r="P1145" s="2"/>
-      <c r="Q1145" s="2"/>
-      <c r="R1145" s="2"/>
-      <c r="S1145" s="2"/>
-      <c r="T1145" s="2"/>
-      <c r="U1145" s="2"/>
-      <c r="V1145" s="2"/>
-      <c r="W1145" s="2"/>
-      <c r="X1145" s="2"/>
-      <c r="Y1145" s="2"/>
-      <c r="Z1145" s="2"/>
-    </row>
-    <row r="1146" spans="1:26">
-      <c r="A1146" s="2"/>
-      <c r="B1146" s="2"/>
-      <c r="C1146" s="2"/>
-      <c r="D1146" s="2"/>
-      <c r="E1146" s="2"/>
-      <c r="F1146" s="2"/>
-      <c r="G1146" s="2"/>
-      <c r="H1146" s="2"/>
-      <c r="I1146" s="2"/>
-      <c r="J1146" s="2"/>
-      <c r="K1146" s="2"/>
-      <c r="L1146" s="2"/>
-      <c r="M1146" s="2"/>
-      <c r="N1146" s="2"/>
-      <c r="O1146" s="2"/>
-      <c r="P1146" s="2"/>
-      <c r="Q1146" s="2"/>
-      <c r="R1146" s="2"/>
-      <c r="S1146" s="2"/>
-      <c r="T1146" s="2"/>
-      <c r="U1146" s="2"/>
-      <c r="V1146" s="2"/>
-      <c r="W1146" s="2"/>
-      <c r="X1146" s="2"/>
-      <c r="Y1146" s="2"/>
-      <c r="Z1146" s="2"/>
-    </row>
-    <row r="1147" spans="1:26">
-      <c r="A1147" s="2"/>
-      <c r="B1147" s="2"/>
-      <c r="C1147" s="2"/>
-      <c r="D1147" s="2"/>
-      <c r="E1147" s="2"/>
-      <c r="F1147" s="2"/>
-      <c r="G1147" s="2"/>
-      <c r="H1147" s="2"/>
-      <c r="I1147" s="2"/>
-      <c r="J1147" s="2"/>
-      <c r="K1147" s="2"/>
-      <c r="L1147" s="2"/>
-      <c r="M1147" s="2"/>
-      <c r="N1147" s="2"/>
-      <c r="O1147" s="2"/>
-      <c r="P1147" s="2"/>
-      <c r="Q1147" s="2"/>
-      <c r="R1147" s="2"/>
-      <c r="S1147" s="2"/>
-      <c r="T1147" s="2"/>
-      <c r="U1147" s="2"/>
-      <c r="V1147" s="2"/>
-      <c r="W1147" s="2"/>
-      <c r="X1147" s="2"/>
-      <c r="Y1147" s="2"/>
-      <c r="Z1147" s="2"/>
-    </row>
-    <row r="1148" spans="1:26">
-      <c r="A1148" s="2"/>
-      <c r="B1148" s="2"/>
-      <c r="C1148" s="2"/>
-      <c r="D1148" s="2"/>
-      <c r="E1148" s="2"/>
-      <c r="F1148" s="2"/>
-      <c r="G1148" s="2"/>
-      <c r="H1148" s="2"/>
-      <c r="I1148" s="2"/>
-      <c r="J1148" s="2"/>
-      <c r="K1148" s="2"/>
-      <c r="L1148" s="2"/>
-      <c r="M1148" s="2"/>
-      <c r="N1148" s="2"/>
-      <c r="O1148" s="2"/>
-      <c r="P1148" s="2"/>
-      <c r="Q1148" s="2"/>
-      <c r="R1148" s="2"/>
-      <c r="S1148" s="2"/>
-      <c r="T1148" s="2"/>
-      <c r="U1148" s="2"/>
-      <c r="V1148" s="2"/>
-      <c r="W1148" s="2"/>
-      <c r="X1148" s="2"/>
-      <c r="Y1148" s="2"/>
-      <c r="Z1148" s="2"/>
-    </row>
-    <row r="1149" spans="1:26">
-      <c r="A1149" s="2"/>
-      <c r="B1149" s="2"/>
-      <c r="C1149" s="2"/>
-      <c r="D1149" s="2"/>
-      <c r="E1149" s="2"/>
-      <c r="F1149" s="2"/>
-      <c r="G1149" s="2"/>
-      <c r="H1149" s="2"/>
-      <c r="I1149" s="2"/>
-      <c r="J1149" s="2"/>
-      <c r="K1149" s="2"/>
-      <c r="L1149" s="2"/>
-      <c r="M1149" s="2"/>
-      <c r="N1149" s="2"/>
-      <c r="O1149" s="2"/>
-      <c r="P1149" s="2"/>
-      <c r="Q1149" s="2"/>
-      <c r="R1149" s="2"/>
-      <c r="S1149" s="2"/>
-      <c r="T1149" s="2"/>
-      <c r="U1149" s="2"/>
-      <c r="V1149" s="2"/>
-      <c r="W1149" s="2"/>
-      <c r="X1149" s="2"/>
-      <c r="Y1149" s="2"/>
-      <c r="Z1149" s="2"/>
-    </row>
-    <row r="1150" spans="1:26">
-      <c r="A1150" s="2"/>
-      <c r="B1150" s="2"/>
-      <c r="C1150" s="2"/>
-      <c r="D1150" s="2"/>
-      <c r="E1150" s="2"/>
-      <c r="F1150" s="2"/>
-      <c r="G1150" s="2"/>
-      <c r="H1150" s="2"/>
-      <c r="I1150" s="2"/>
-      <c r="J1150" s="2"/>
-      <c r="K1150" s="2"/>
-      <c r="L1150" s="2"/>
-      <c r="M1150" s="2"/>
-      <c r="N1150" s="2"/>
-      <c r="O1150" s="2"/>
-      <c r="P1150" s="2"/>
-      <c r="Q1150" s="2"/>
-      <c r="R1150" s="2"/>
-      <c r="S1150" s="2"/>
-      <c r="T1150" s="2"/>
-      <c r="U1150" s="2"/>
-      <c r="V1150" s="2"/>
-      <c r="W1150" s="2"/>
-      <c r="X1150" s="2"/>
-      <c r="Y1150" s="2"/>
-      <c r="Z1150" s="2"/>
-    </row>
-    <row r="1151" spans="1:26">
-      <c r="A1151" s="2"/>
-      <c r="B1151" s="2"/>
-      <c r="C1151" s="2"/>
-      <c r="D1151" s="2"/>
-      <c r="E1151" s="2"/>
-      <c r="F1151" s="2"/>
-      <c r="G1151" s="2"/>
-      <c r="H1151" s="2"/>
-      <c r="I1151" s="2"/>
-      <c r="J1151" s="2"/>
-      <c r="K1151" s="2"/>
-      <c r="L1151" s="2"/>
-      <c r="M1151" s="2"/>
-      <c r="N1151" s="2"/>
-      <c r="O1151" s="2"/>
-      <c r="P1151" s="2"/>
-      <c r="Q1151" s="2"/>
-      <c r="R1151" s="2"/>
-      <c r="S1151" s="2"/>
-      <c r="T1151" s="2"/>
-      <c r="U1151" s="2"/>
-      <c r="V1151" s="2"/>
-      <c r="W1151" s="2"/>
-      <c r="X1151" s="2"/>
-      <c r="Y1151" s="2"/>
-      <c r="Z1151" s="2"/>
-    </row>
-    <row r="1152" spans="1:26">
-      <c r="A1152" s="2"/>
-      <c r="B1152" s="2"/>
-      <c r="C1152" s="2"/>
-      <c r="D1152" s="2"/>
-      <c r="E1152" s="2"/>
-      <c r="F1152" s="2"/>
-      <c r="G1152" s="2"/>
-      <c r="H1152" s="2"/>
-      <c r="I1152" s="2"/>
-      <c r="J1152" s="2"/>
-      <c r="K1152" s="2"/>
-      <c r="L1152" s="2"/>
-      <c r="M1152" s="2"/>
-      <c r="N1152" s="2"/>
-      <c r="O1152" s="2"/>
-      <c r="P1152" s="2"/>
-      <c r="Q1152" s="2"/>
-      <c r="R1152" s="2"/>
-      <c r="S1152" s="2"/>
-      <c r="T1152" s="2"/>
-      <c r="U1152" s="2"/>
-      <c r="V1152" s="2"/>
-      <c r="W1152" s="2"/>
-      <c r="X1152" s="2"/>
-      <c r="Y1152" s="2"/>
-      <c r="Z1152" s="2"/>
-    </row>
-    <row r="1153" spans="1:26">
-      <c r="A1153" s="2"/>
-      <c r="B1153" s="2"/>
-      <c r="C1153" s="2"/>
-      <c r="D1153" s="2"/>
-      <c r="E1153" s="2"/>
-      <c r="F1153" s="2"/>
-      <c r="G1153" s="2"/>
-      <c r="H1153" s="2"/>
-      <c r="I1153" s="2"/>
-      <c r="J1153" s="2"/>
-      <c r="K1153" s="2"/>
-      <c r="L1153" s="2"/>
-      <c r="M1153" s="2"/>
-      <c r="N1153" s="2"/>
-      <c r="O1153" s="2"/>
-      <c r="P1153" s="2"/>
-      <c r="Q1153" s="2"/>
-      <c r="R1153" s="2"/>
-      <c r="S1153" s="2"/>
-      <c r="T1153" s="2"/>
-      <c r="U1153" s="2"/>
-      <c r="V1153" s="2"/>
-      <c r="W1153" s="2"/>
-      <c r="X1153" s="2"/>
-      <c r="Y1153" s="2"/>
-      <c r="Z1153" s="2"/>
-    </row>
-    <row r="1154" spans="1:26">
-      <c r="A1154" s="2"/>
-      <c r="B1154" s="2"/>
-      <c r="C1154" s="2"/>
-      <c r="D1154" s="2"/>
-      <c r="E1154" s="2"/>
-      <c r="F1154" s="2"/>
-      <c r="G1154" s="2"/>
-      <c r="H1154" s="2"/>
-      <c r="I1154" s="2"/>
-      <c r="J1154" s="2"/>
-      <c r="K1154" s="2"/>
-      <c r="L1154" s="2"/>
-      <c r="M1154" s="2"/>
-      <c r="N1154" s="2"/>
-      <c r="O1154" s="2"/>
-      <c r="P1154" s="2"/>
-      <c r="Q1154" s="2"/>
-      <c r="R1154" s="2"/>
-      <c r="S1154" s="2"/>
-      <c r="T1154" s="2"/>
-      <c r="U1154" s="2"/>
-      <c r="V1154" s="2"/>
-      <c r="W1154" s="2"/>
-      <c r="X1154" s="2"/>
-      <c r="Y1154" s="2"/>
-      <c r="Z1154" s="2"/>
-    </row>
-    <row r="1155" spans="1:26">
-      <c r="A1155" s="2"/>
-      <c r="B1155" s="2"/>
-      <c r="C1155" s="2"/>
-      <c r="D1155" s="2"/>
-      <c r="E1155" s="2"/>
-      <c r="F1155" s="2"/>
-      <c r="G1155" s="2"/>
-      <c r="H1155" s="2"/>
-      <c r="I1155" s="2"/>
-      <c r="J1155" s="2"/>
-      <c r="K1155" s="2"/>
-      <c r="L1155" s="2"/>
-      <c r="M1155" s="2"/>
-      <c r="N1155" s="2"/>
-      <c r="O1155" s="2"/>
-      <c r="P1155" s="2"/>
-      <c r="Q1155" s="2"/>
-      <c r="R1155" s="2"/>
-      <c r="S1155" s="2"/>
-      <c r="T1155" s="2"/>
-      <c r="U1155" s="2"/>
-      <c r="V1155" s="2"/>
-      <c r="W1155" s="2"/>
-      <c r="X1155" s="2"/>
-      <c r="Y1155" s="2"/>
-      <c r="Z1155" s="2"/>
-    </row>
-    <row r="1156" spans="1:26">
-      <c r="A1156" s="2"/>
-      <c r="B1156" s="2"/>
-      <c r="C1156" s="2"/>
-      <c r="D1156" s="2"/>
-      <c r="E1156" s="2"/>
-      <c r="F1156" s="2"/>
-      <c r="G1156" s="2"/>
-      <c r="H1156" s="2"/>
-      <c r="I1156" s="2"/>
-      <c r="J1156" s="2"/>
-      <c r="K1156" s="2"/>
-      <c r="L1156" s="2"/>
-      <c r="M1156" s="2"/>
-      <c r="N1156" s="2"/>
-      <c r="O1156" s="2"/>
-      <c r="P1156" s="2"/>
-      <c r="Q1156" s="2"/>
-      <c r="R1156" s="2"/>
-      <c r="S1156" s="2"/>
-      <c r="T1156" s="2"/>
-      <c r="U1156" s="2"/>
-      <c r="V1156" s="2"/>
-      <c r="W1156" s="2"/>
-      <c r="X1156" s="2"/>
-      <c r="Y1156" s="2"/>
-      <c r="Z1156" s="2"/>
-    </row>
-    <row r="1157" spans="1:26">
-      <c r="A1157" s="2"/>
-      <c r="B1157" s="2"/>
-      <c r="C1157" s="2"/>
-      <c r="D1157" s="2"/>
-      <c r="E1157" s="2"/>
-      <c r="F1157" s="2"/>
-      <c r="G1157" s="2"/>
-      <c r="H1157" s="2"/>
-      <c r="I1157" s="2"/>
-      <c r="J1157" s="2"/>
-      <c r="K1157" s="2"/>
-      <c r="L1157" s="2"/>
-      <c r="M1157" s="2"/>
-      <c r="N1157" s="2"/>
-      <c r="O1157" s="2"/>
-      <c r="P1157" s="2"/>
-      <c r="Q1157" s="2"/>
-      <c r="R1157" s="2"/>
-      <c r="S1157" s="2"/>
-      <c r="T1157" s="2"/>
-      <c r="U1157" s="2"/>
-      <c r="V1157" s="2"/>
-      <c r="W1157" s="2"/>
-      <c r="X1157" s="2"/>
-      <c r="Y1157" s="2"/>
-      <c r="Z1157" s="2"/>
-    </row>
-    <row r="1158" spans="1:26">
-      <c r="A1158" s="2"/>
-      <c r="B1158" s="2"/>
-      <c r="C1158" s="2"/>
-      <c r="D1158" s="2"/>
-      <c r="E1158" s="2"/>
-      <c r="F1158" s="2"/>
-      <c r="G1158" s="2"/>
-      <c r="H1158" s="2"/>
-      <c r="I1158" s="2"/>
-      <c r="J1158" s="2"/>
-      <c r="K1158" s="2"/>
-      <c r="L1158" s="2"/>
-      <c r="M1158" s="2"/>
-      <c r="N1158" s="2"/>
-      <c r="O1158" s="2"/>
-      <c r="P1158" s="2"/>
-      <c r="Q1158" s="2"/>
-      <c r="R1158" s="2"/>
-      <c r="S1158" s="2"/>
-      <c r="T1158" s="2"/>
-      <c r="U1158" s="2"/>
-      <c r="V1158" s="2"/>
-      <c r="W1158" s="2"/>
-      <c r="X1158" s="2"/>
-      <c r="Y1158" s="2"/>
-      <c r="Z1158" s="2"/>
-    </row>
-    <row r="1159" spans="1:26">
-      <c r="A1159" s="2"/>
-      <c r="B1159" s="2"/>
-      <c r="C1159" s="2"/>
-      <c r="D1159" s="2"/>
-      <c r="E1159" s="2"/>
-      <c r="F1159" s="2"/>
-      <c r="G1159" s="2"/>
-      <c r="H1159" s="2"/>
-      <c r="I1159" s="2"/>
-      <c r="J1159" s="2"/>
-      <c r="K1159" s="2"/>
-      <c r="L1159" s="2"/>
-      <c r="M1159" s="2"/>
-      <c r="N1159" s="2"/>
-      <c r="O1159" s="2"/>
-      <c r="P1159" s="2"/>
-      <c r="Q1159" s="2"/>
-      <c r="R1159" s="2"/>
-      <c r="S1159" s="2"/>
-      <c r="T1159" s="2"/>
-      <c r="U1159" s="2"/>
-      <c r="V1159" s="2"/>
-      <c r="W1159" s="2"/>
-      <c r="X1159" s="2"/>
-      <c r="Y1159" s="2"/>
-      <c r="Z1159" s="2"/>
-    </row>
-    <row r="1160" spans="1:26">
-      <c r="A1160" s="2"/>
-      <c r="B1160" s="2"/>
-      <c r="C1160" s="2"/>
-      <c r="D1160" s="2"/>
-      <c r="E1160" s="2"/>
-      <c r="F1160" s="2"/>
-      <c r="G1160" s="2"/>
-      <c r="H1160" s="2"/>
-      <c r="I1160" s="2"/>
-      <c r="J1160" s="2"/>
-      <c r="K1160" s="2"/>
-      <c r="L1160" s="2"/>
-      <c r="M1160" s="2"/>
-      <c r="N1160" s="2"/>
-      <c r="O1160" s="2"/>
-      <c r="P1160" s="2"/>
-      <c r="Q1160" s="2"/>
-      <c r="R1160" s="2"/>
-      <c r="S1160" s="2"/>
-      <c r="T1160" s="2"/>
-      <c r="U1160" s="2"/>
-      <c r="V1160" s="2"/>
-      <c r="W1160" s="2"/>
-      <c r="X1160" s="2"/>
-      <c r="Y1160" s="2"/>
-      <c r="Z1160" s="2"/>
-    </row>
-    <row r="1161" spans="1:26">
-      <c r="A1161" s="2"/>
-      <c r="B1161" s="2"/>
-      <c r="C1161" s="2"/>
-      <c r="D1161" s="2"/>
-      <c r="E1161" s="2"/>
-      <c r="F1161" s="2"/>
-      <c r="G1161" s="2"/>
-      <c r="H1161" s="2"/>
-      <c r="I1161" s="2"/>
-      <c r="J1161" s="2"/>
-      <c r="K1161" s="2"/>
-      <c r="L1161" s="2"/>
-      <c r="M1161" s="2"/>
-      <c r="N1161" s="2"/>
-      <c r="O1161" s="2"/>
-      <c r="P1161" s="2"/>
-      <c r="Q1161" s="2"/>
-      <c r="R1161" s="2"/>
-      <c r="S1161" s="2"/>
-      <c r="T1161" s="2"/>
-      <c r="U1161" s="2"/>
-      <c r="V1161" s="2"/>
-      <c r="W1161" s="2"/>
-      <c r="X1161" s="2"/>
-      <c r="Y1161" s="2"/>
-      <c r="Z1161" s="2"/>
-    </row>
-    <row r="1162" spans="1:26">
-      <c r="A1162" s="2"/>
-      <c r="B1162" s="2"/>
-      <c r="C1162" s="2"/>
-      <c r="D1162" s="2"/>
-      <c r="E1162" s="2"/>
-      <c r="F1162" s="2"/>
-      <c r="G1162" s="2"/>
-      <c r="H1162" s="2"/>
-      <c r="I1162" s="2"/>
-      <c r="J1162" s="2"/>
-      <c r="K1162" s="2"/>
-      <c r="L1162" s="2"/>
-      <c r="M1162" s="2"/>
-      <c r="N1162" s="2"/>
-      <c r="O1162" s="2"/>
-      <c r="P1162" s="2"/>
-      <c r="Q1162" s="2"/>
-      <c r="R1162" s="2"/>
-      <c r="S1162" s="2"/>
-      <c r="T1162" s="2"/>
-      <c r="U1162" s="2"/>
-      <c r="V1162" s="2"/>
-      <c r="W1162" s="2"/>
-      <c r="X1162" s="2"/>
-      <c r="Y1162" s="2"/>
-      <c r="Z1162" s="2"/>
-    </row>
-    <row r="1163" spans="1:26">
-      <c r="A1163" s="2"/>
-      <c r="B1163" s="2"/>
-      <c r="C1163" s="2"/>
-      <c r="D1163" s="2"/>
-      <c r="E1163" s="2"/>
-      <c r="F1163" s="2"/>
-      <c r="G1163" s="2"/>
-      <c r="H1163" s="2"/>
-      <c r="I1163" s="2"/>
-      <c r="J1163" s="2"/>
-      <c r="K1163" s="2"/>
-      <c r="L1163" s="2"/>
-      <c r="M1163" s="2"/>
-      <c r="N1163" s="2"/>
-      <c r="O1163" s="2"/>
-      <c r="P1163" s="2"/>
-      <c r="Q1163" s="2"/>
-      <c r="R1163" s="2"/>
-      <c r="S1163" s="2"/>
-      <c r="T1163" s="2"/>
-      <c r="U1163" s="2"/>
-      <c r="V1163" s="2"/>
-      <c r="W1163" s="2"/>
-      <c r="X1163" s="2"/>
-      <c r="Y1163" s="2"/>
-      <c r="Z1163" s="2"/>
-    </row>
-    <row r="1164" spans="1:26">
-      <c r="A1164" s="2"/>
-      <c r="B1164" s="2"/>
-      <c r="C1164" s="2"/>
-      <c r="D1164" s="2"/>
-      <c r="E1164" s="2"/>
-      <c r="F1164" s="2"/>
-      <c r="G1164" s="2"/>
-      <c r="H1164" s="2"/>
-      <c r="I1164" s="2"/>
-      <c r="J1164" s="2"/>
-      <c r="K1164" s="2"/>
-      <c r="L1164" s="2"/>
-      <c r="M1164" s="2"/>
-      <c r="N1164" s="2"/>
-      <c r="O1164" s="2"/>
-      <c r="P1164" s="2"/>
-      <c r="Q1164" s="2"/>
-      <c r="R1164" s="2"/>
-      <c r="S1164" s="2"/>
-      <c r="T1164" s="2"/>
-      <c r="U1164" s="2"/>
-      <c r="V1164" s="2"/>
-      <c r="W1164" s="2"/>
-      <c r="X1164" s="2"/>
-      <c r="Y1164" s="2"/>
-      <c r="Z1164" s="2"/>
-    </row>
-    <row r="1165" spans="1:26">
-      <c r="A1165" s="2"/>
-      <c r="B1165" s="2"/>
-      <c r="C1165" s="2"/>
-      <c r="D1165" s="2"/>
-      <c r="E1165" s="2"/>
-      <c r="F1165" s="2"/>
-      <c r="G1165" s="2"/>
-      <c r="H1165" s="2"/>
-      <c r="I1165" s="2"/>
-      <c r="J1165" s="2"/>
-      <c r="K1165" s="2"/>
-      <c r="L1165" s="2"/>
-      <c r="M1165" s="2"/>
-      <c r="N1165" s="2"/>
-      <c r="O1165" s="2"/>
-      <c r="P1165" s="2"/>
-      <c r="Q1165" s="2"/>
-      <c r="R1165" s="2"/>
-      <c r="S1165" s="2"/>
-      <c r="T1165" s="2"/>
-      <c r="U1165" s="2"/>
-      <c r="V1165" s="2"/>
-      <c r="W1165" s="2"/>
-      <c r="X1165" s="2"/>
-      <c r="Y1165" s="2"/>
-      <c r="Z1165" s="2"/>
-    </row>
-    <row r="1166" spans="1:26">
-      <c r="A1166" s="2"/>
-      <c r="B1166" s="2"/>
-      <c r="C1166" s="2"/>
-      <c r="D1166" s="2"/>
-      <c r="E1166" s="2"/>
-      <c r="F1166" s="2"/>
-      <c r="G1166" s="2"/>
-      <c r="H1166" s="2"/>
-      <c r="I1166" s="2"/>
-      <c r="J1166" s="2"/>
-      <c r="K1166" s="2"/>
-      <c r="L1166" s="2"/>
-      <c r="M1166" s="2"/>
-      <c r="N1166" s="2"/>
-      <c r="O1166" s="2"/>
-      <c r="P1166" s="2"/>
-      <c r="Q1166" s="2"/>
-      <c r="R1166" s="2"/>
-      <c r="S1166" s="2"/>
-      <c r="T1166" s="2"/>
-      <c r="U1166" s="2"/>
-      <c r="V1166" s="2"/>
-      <c r="W1166" s="2"/>
-      <c r="X1166" s="2"/>
-      <c r="Y1166" s="2"/>
-      <c r="Z1166" s="2"/>
-    </row>
-    <row r="1167" spans="1:26">
-      <c r="A1167" s="2"/>
-      <c r="B1167" s="2"/>
-      <c r="C1167" s="2"/>
-      <c r="D1167" s="2"/>
-      <c r="E1167" s="2"/>
-      <c r="F1167" s="2"/>
-      <c r="G1167" s="2"/>
-      <c r="H1167" s="2"/>
-      <c r="I1167" s="2"/>
-      <c r="J1167" s="2"/>
-      <c r="K1167" s="2"/>
-      <c r="L1167" s="2"/>
-      <c r="M1167" s="2"/>
-      <c r="N1167" s="2"/>
-      <c r="O1167" s="2"/>
-      <c r="P1167" s="2"/>
-      <c r="Q1167" s="2"/>
-      <c r="R1167" s="2"/>
-      <c r="S1167" s="2"/>
-      <c r="T1167" s="2"/>
-      <c r="U1167" s="2"/>
-      <c r="V1167" s="2"/>
-      <c r="W1167" s="2"/>
-      <c r="X1167" s="2"/>
-      <c r="Y1167" s="2"/>
-      <c r="Z1167" s="2"/>
-    </row>
-    <row r="1168" spans="1:26">
-      <c r="A1168" s="2"/>
-      <c r="B1168" s="2"/>
-      <c r="C1168" s="2"/>
-      <c r="D1168" s="2"/>
-      <c r="E1168" s="2"/>
-      <c r="F1168" s="2"/>
-      <c r="G1168" s="2"/>
-      <c r="H1168" s="2"/>
-      <c r="I1168" s="2"/>
-      <c r="J1168" s="2"/>
-      <c r="K1168" s="2"/>
-      <c r="L1168" s="2"/>
-      <c r="M1168" s="2"/>
-      <c r="N1168" s="2"/>
-      <c r="O1168" s="2"/>
-      <c r="P1168" s="2"/>
-      <c r="Q1168" s="2"/>
-      <c r="R1168" s="2"/>
-      <c r="S1168" s="2"/>
-      <c r="T1168" s="2"/>
-      <c r="U1168" s="2"/>
-      <c r="V1168" s="2"/>
-      <c r="W1168" s="2"/>
-      <c r="X1168" s="2"/>
-      <c r="Y1168" s="2"/>
-      <c r="Z1168" s="2"/>
-    </row>
-    <row r="1169" spans="1:26">
-      <c r="A1169" s="2"/>
-      <c r="B1169" s="2"/>
-      <c r="C1169" s="2"/>
-      <c r="D1169" s="2"/>
-      <c r="E1169" s="2"/>
-      <c r="F1169" s="2"/>
-      <c r="G1169" s="2"/>
-      <c r="H1169" s="2"/>
-      <c r="I1169" s="2"/>
-      <c r="J1169" s="2"/>
-      <c r="K1169" s="2"/>
-      <c r="L1169" s="2"/>
-      <c r="M1169" s="2"/>
-      <c r="N1169" s="2"/>
-      <c r="O1169" s="2"/>
-      <c r="P1169" s="2"/>
-      <c r="Q1169" s="2"/>
-      <c r="R1169" s="2"/>
-      <c r="S1169" s="2"/>
-      <c r="T1169" s="2"/>
-      <c r="U1169" s="2"/>
-      <c r="V1169" s="2"/>
-      <c r="W1169" s="2"/>
-      <c r="X1169" s="2"/>
-      <c r="Y1169" s="2"/>
-      <c r="Z1169" s="2"/>
-    </row>
-    <row r="1170" spans="1:26">
-      <c r="A1170" s="2"/>
-      <c r="B1170" s="2"/>
-      <c r="C1170" s="2"/>
-      <c r="D1170" s="2"/>
-      <c r="E1170" s="2"/>
-      <c r="F1170" s="2"/>
-      <c r="G1170" s="2"/>
-      <c r="H1170" s="2"/>
-      <c r="I1170" s="2"/>
-      <c r="J1170" s="2"/>
-      <c r="K1170" s="2"/>
-      <c r="L1170" s="2"/>
-      <c r="M1170" s="2"/>
-      <c r="N1170" s="2"/>
-      <c r="O1170" s="2"/>
-      <c r="P1170" s="2"/>
-      <c r="Q1170" s="2"/>
-      <c r="R1170" s="2"/>
-      <c r="S1170" s="2"/>
-      <c r="T1170" s="2"/>
-      <c r="U1170" s="2"/>
-      <c r="V1170" s="2"/>
-      <c r="W1170" s="2"/>
-      <c r="X1170" s="2"/>
-      <c r="Y1170" s="2"/>
-      <c r="Z1170" s="2"/>
-    </row>
-    <row r="1171" spans="1:26">
-      <c r="A1171" s="2"/>
-      <c r="B1171" s="2"/>
-      <c r="C1171" s="2"/>
-      <c r="D1171" s="2"/>
-      <c r="E1171" s="2"/>
-      <c r="F1171" s="2"/>
-      <c r="G1171" s="2"/>
-      <c r="H1171" s="2"/>
-      <c r="I1171" s="2"/>
-      <c r="J1171" s="2"/>
-      <c r="K1171" s="2"/>
-      <c r="L1171" s="2"/>
-      <c r="M1171" s="2"/>
-      <c r="N1171" s="2"/>
-      <c r="O1171" s="2"/>
-      <c r="P1171" s="2"/>
-      <c r="Q1171" s="2"/>
-      <c r="R1171" s="2"/>
-      <c r="S1171" s="2"/>
-      <c r="T1171" s="2"/>
-      <c r="U1171" s="2"/>
-      <c r="V1171" s="2"/>
-      <c r="W1171" s="2"/>
-      <c r="X1171" s="2"/>
-      <c r="Y1171" s="2"/>
-      <c r="Z1171" s="2"/>
-    </row>
-    <row r="1172" spans="1:26">
-      <c r="A1172" s="2"/>
-      <c r="B1172" s="2"/>
-      <c r="C1172" s="2"/>
-      <c r="D1172" s="2"/>
-      <c r="E1172" s="2"/>
-      <c r="F1172" s="2"/>
-      <c r="G1172" s="2"/>
-      <c r="H1172" s="2"/>
-      <c r="I1172" s="2"/>
-      <c r="J1172" s="2"/>
-      <c r="K1172" s="2"/>
-      <c r="L1172" s="2"/>
-      <c r="M1172" s="2"/>
-      <c r="N1172" s="2"/>
-      <c r="O1172" s="2"/>
-      <c r="P1172" s="2"/>
-      <c r="Q1172" s="2"/>
-      <c r="R1172" s="2"/>
-      <c r="S1172" s="2"/>
-      <c r="T1172" s="2"/>
-      <c r="U1172" s="2"/>
-      <c r="V1172" s="2"/>
-      <c r="W1172" s="2"/>
-      <c r="X1172" s="2"/>
-      <c r="Y1172" s="2"/>
-      <c r="Z1172" s="2"/>
-    </row>
-    <row r="1173" spans="1:26">
-      <c r="A1173" s="2"/>
-      <c r="B1173" s="2"/>
-      <c r="C1173" s="2"/>
-      <c r="D1173" s="2"/>
-      <c r="E1173" s="2"/>
-      <c r="F1173" s="2"/>
-      <c r="G1173" s="2"/>
-      <c r="H1173" s="2"/>
-      <c r="I1173" s="2"/>
-      <c r="J1173" s="2"/>
-      <c r="K1173" s="2"/>
-      <c r="L1173" s="2"/>
-      <c r="M1173" s="2"/>
-      <c r="N1173" s="2"/>
-      <c r="O1173" s="2"/>
-      <c r="P1173" s="2"/>
-      <c r="Q1173" s="2"/>
-      <c r="R1173" s="2"/>
-      <c r="S1173" s="2"/>
-      <c r="T1173" s="2"/>
-      <c r="U1173" s="2"/>
-      <c r="V1173" s="2"/>
-      <c r="W1173" s="2"/>
-      <c r="X1173" s="2"/>
-      <c r="Y1173" s="2"/>
-      <c r="Z1173" s="2"/>
-    </row>
-    <row r="1174" spans="1:26">
-      <c r="A1174" s="2"/>
-      <c r="B1174" s="2"/>
-      <c r="C1174" s="2"/>
-      <c r="D1174" s="2"/>
-      <c r="E1174" s="2"/>
-      <c r="F1174" s="2"/>
-      <c r="G1174" s="2"/>
-      <c r="H1174" s="2"/>
-      <c r="I1174" s="2"/>
-      <c r="J1174" s="2"/>
-      <c r="K1174" s="2"/>
-      <c r="L1174" s="2"/>
-      <c r="M1174" s="2"/>
-      <c r="N1174" s="2"/>
-      <c r="O1174" s="2"/>
-      <c r="P1174" s="2"/>
-      <c r="Q1174" s="2"/>
-      <c r="R1174" s="2"/>
-      <c r="S1174" s="2"/>
-      <c r="T1174" s="2"/>
-      <c r="U1174" s="2"/>
-      <c r="V1174" s="2"/>
-      <c r="W1174" s="2"/>
-      <c r="X1174" s="2"/>
-      <c r="Y1174" s="2"/>
-      <c r="Z1174" s="2"/>
-    </row>
-    <row r="1175" spans="1:26">
-      <c r="A1175" s="2"/>
-      <c r="B1175" s="2"/>
-      <c r="C1175" s="2"/>
-      <c r="D1175" s="2"/>
-      <c r="E1175" s="2"/>
-      <c r="F1175" s="2"/>
-      <c r="G1175" s="2"/>
-      <c r="H1175" s="2"/>
-      <c r="I1175" s="2"/>
-      <c r="J1175" s="2"/>
-      <c r="K1175" s="2"/>
-      <c r="L1175" s="2"/>
-      <c r="M1175" s="2"/>
-      <c r="N1175" s="2"/>
-      <c r="O1175" s="2"/>
-      <c r="P1175" s="2"/>
-      <c r="Q1175" s="2"/>
-      <c r="R1175" s="2"/>
-      <c r="S1175" s="2"/>
-      <c r="T1175" s="2"/>
-      <c r="U1175" s="2"/>
-      <c r="V1175" s="2"/>
-      <c r="W1175" s="2"/>
-      <c r="X1175" s="2"/>
-      <c r="Y1175" s="2"/>
-      <c r="Z1175" s="2"/>
-    </row>
-    <row r="1176" spans="1:26">
-      <c r="A1176" s="2"/>
-      <c r="B1176" s="2"/>
-      <c r="C1176" s="2"/>
-      <c r="D1176" s="2"/>
-      <c r="E1176" s="2"/>
-      <c r="F1176" s="2"/>
-      <c r="G1176" s="2"/>
-      <c r="H1176" s="2"/>
-      <c r="I1176" s="2"/>
-      <c r="J1176" s="2"/>
-      <c r="K1176" s="2"/>
-      <c r="L1176" s="2"/>
-      <c r="M1176" s="2"/>
-      <c r="N1176" s="2"/>
-      <c r="O1176" s="2"/>
-      <c r="P1176" s="2"/>
-      <c r="Q1176" s="2"/>
-      <c r="R1176" s="2"/>
-      <c r="S1176" s="2"/>
-      <c r="T1176" s="2"/>
-      <c r="U1176" s="2"/>
-      <c r="V1176" s="2"/>
-      <c r="W1176" s="2"/>
-      <c r="X1176" s="2"/>
-      <c r="Y1176" s="2"/>
-      <c r="Z1176" s="2"/>
-    </row>
-    <row r="1177" spans="1:26">
-      <c r="A1177" s="2"/>
-      <c r="B1177" s="2"/>
-      <c r="C1177" s="2"/>
-      <c r="D1177" s="2"/>
-      <c r="E1177" s="2"/>
-      <c r="F1177" s="2"/>
-      <c r="G1177" s="2"/>
-      <c r="H1177" s="2"/>
-      <c r="I1177" s="2"/>
-      <c r="J1177" s="2"/>
-      <c r="K1177" s="2"/>
-      <c r="L1177" s="2"/>
-      <c r="M1177" s="2"/>
-      <c r="N1177" s="2"/>
-      <c r="O1177" s="2"/>
-      <c r="P1177" s="2"/>
-      <c r="Q1177" s="2"/>
-      <c r="R1177" s="2"/>
-      <c r="S1177" s="2"/>
-      <c r="T1177" s="2"/>
-      <c r="U1177" s="2"/>
-      <c r="V1177" s="2"/>
-      <c r="W1177" s="2"/>
-      <c r="X1177" s="2"/>
-      <c r="Y1177" s="2"/>
-      <c r="Z1177" s="2"/>
-    </row>
-    <row r="1178" spans="1:26">
-      <c r="A1178" s="2"/>
-      <c r="B1178" s="2"/>
-      <c r="C1178" s="2"/>
-      <c r="D1178" s="2"/>
-      <c r="E1178" s="2"/>
-      <c r="F1178" s="2"/>
-      <c r="G1178" s="2"/>
-      <c r="H1178" s="2"/>
-      <c r="I1178" s="2"/>
-      <c r="J1178" s="2"/>
-      <c r="K1178" s="2"/>
-      <c r="L1178" s="2"/>
-      <c r="M1178" s="2"/>
-      <c r="N1178" s="2"/>
-      <c r="O1178" s="2"/>
-      <c r="P1178" s="2"/>
-      <c r="Q1178" s="2"/>
-      <c r="R1178" s="2"/>
-      <c r="S1178" s="2"/>
-      <c r="T1178" s="2"/>
-      <c r="U1178" s="2"/>
-      <c r="V1178" s="2"/>
-      <c r="W1178" s="2"/>
-      <c r="X1178" s="2"/>
-      <c r="Y1178" s="2"/>
-      <c r="Z1178" s="2"/>
-    </row>
-    <row r="1179" spans="1:26">
-      <c r="A1179" s="2"/>
-      <c r="B1179" s="2"/>
-      <c r="C1179" s="2"/>
-      <c r="D1179" s="2"/>
-      <c r="E1179" s="2"/>
-      <c r="F1179" s="2"/>
-      <c r="G1179" s="2"/>
-      <c r="H1179" s="2"/>
-      <c r="I1179" s="2"/>
-      <c r="J1179" s="2"/>
-      <c r="K1179" s="2"/>
-      <c r="L1179" s="2"/>
-      <c r="M1179" s="2"/>
-      <c r="N1179" s="2"/>
-      <c r="O1179" s="2"/>
-      <c r="P1179" s="2"/>
-      <c r="Q1179" s="2"/>
-      <c r="R1179" s="2"/>
-      <c r="S1179" s="2"/>
-      <c r="T1179" s="2"/>
-      <c r="U1179" s="2"/>
-      <c r="V1179" s="2"/>
-      <c r="W1179" s="2"/>
-      <c r="X1179" s="2"/>
-      <c r="Y1179" s="2"/>
-      <c r="Z1179" s="2"/>
-    </row>
-    <row r="1180" spans="1:26">
-      <c r="A1180" s="2"/>
-      <c r="B1180" s="2"/>
-      <c r="C1180" s="2"/>
-      <c r="D1180" s="2"/>
-      <c r="E1180" s="2"/>
-      <c r="F1180" s="2"/>
-      <c r="G1180" s="2"/>
-      <c r="H1180" s="2"/>
-      <c r="I1180" s="2"/>
-      <c r="J1180" s="2"/>
-      <c r="K1180" s="2"/>
-      <c r="L1180" s="2"/>
-      <c r="M1180" s="2"/>
-      <c r="N1180" s="2"/>
-      <c r="O1180" s="2"/>
-      <c r="P1180" s="2"/>
-      <c r="Q1180" s="2"/>
-      <c r="R1180" s="2"/>
-      <c r="S1180" s="2"/>
-      <c r="T1180" s="2"/>
-      <c r="U1180" s="2"/>
-      <c r="V1180" s="2"/>
-      <c r="W1180" s="2"/>
-      <c r="X1180" s="2"/>
-      <c r="Y1180" s="2"/>
-      <c r="Z1180" s="2"/>
-    </row>
-    <row r="1181" spans="1:26">
-      <c r="A1181" s="2"/>
-      <c r="B1181" s="2"/>
-      <c r="C1181" s="2"/>
-      <c r="D1181" s="2"/>
-      <c r="E1181" s="2"/>
-      <c r="F1181" s="2"/>
-      <c r="G1181" s="2"/>
-      <c r="H1181" s="2"/>
-      <c r="I1181" s="2"/>
-      <c r="J1181" s="2"/>
-      <c r="K1181" s="2"/>
-      <c r="L1181" s="2"/>
-      <c r="M1181" s="2"/>
-      <c r="N1181" s="2"/>
-      <c r="O1181" s="2"/>
-      <c r="P1181" s="2"/>
-      <c r="Q1181" s="2"/>
-      <c r="R1181" s="2"/>
-      <c r="S1181" s="2"/>
-      <c r="T1181" s="2"/>
-      <c r="U1181" s="2"/>
-      <c r="V1181" s="2"/>
-      <c r="W1181" s="2"/>
-      <c r="X1181" s="2"/>
-      <c r="Y1181" s="2"/>
-      <c r="Z1181" s="2"/>
-    </row>
-    <row r="1182" spans="1:26">
-      <c r="A1182" s="2"/>
-      <c r="B1182" s="2"/>
-      <c r="C1182" s="2"/>
-      <c r="D1182" s="2"/>
-      <c r="E1182" s="2"/>
-      <c r="F1182" s="2"/>
-      <c r="G1182" s="2"/>
-      <c r="H1182" s="2"/>
-      <c r="I1182" s="2"/>
-      <c r="J1182" s="2"/>
-      <c r="K1182" s="2"/>
-      <c r="L1182" s="2"/>
-      <c r="M1182" s="2"/>
-      <c r="N1182" s="2"/>
-      <c r="O1182" s="2"/>
-      <c r="P1182" s="2"/>
-      <c r="Q1182" s="2"/>
-      <c r="R1182" s="2"/>
-      <c r="S1182" s="2"/>
-      <c r="T1182" s="2"/>
-      <c r="U1182" s="2"/>
-      <c r="V1182" s="2"/>
-      <c r="W1182" s="2"/>
-      <c r="X1182" s="2"/>
-      <c r="Y1182" s="2"/>
-      <c r="Z1182" s="2"/>
-    </row>
-    <row r="1183" spans="1:26">
-      <c r="A1183" s="2"/>
-      <c r="B1183" s="2"/>
-      <c r="C1183" s="2"/>
-      <c r="D1183" s="2"/>
-      <c r="E1183" s="2"/>
-      <c r="F1183" s="2"/>
-      <c r="G1183" s="2"/>
-      <c r="H1183" s="2"/>
-      <c r="I1183" s="2"/>
-      <c r="J1183" s="2"/>
-      <c r="K1183" s="2"/>
-      <c r="L1183" s="2"/>
-      <c r="M1183" s="2"/>
-      <c r="N1183" s="2"/>
-      <c r="O1183" s="2"/>
-      <c r="P1183" s="2"/>
-      <c r="Q1183" s="2"/>
-      <c r="R1183" s="2"/>
-      <c r="S1183" s="2"/>
-      <c r="T1183" s="2"/>
-      <c r="U1183" s="2"/>
-      <c r="V1183" s="2"/>
-      <c r="W1183" s="2"/>
-      <c r="X1183" s="2"/>
-      <c r="Y1183" s="2"/>
-      <c r="Z1183" s="2"/>
-    </row>
-    <row r="1184" spans="1:26">
-      <c r="A1184" s="2"/>
-      <c r="B1184" s="2"/>
-      <c r="C1184" s="2"/>
-      <c r="D1184" s="2"/>
-      <c r="E1184" s="2"/>
-      <c r="F1184" s="2"/>
-      <c r="G1184" s="2"/>
-      <c r="H1184" s="2"/>
-      <c r="I1184" s="2"/>
-      <c r="J1184" s="2"/>
-      <c r="K1184" s="2"/>
-      <c r="L1184" s="2"/>
-      <c r="M1184" s="2"/>
-      <c r="N1184" s="2"/>
-      <c r="O1184" s="2"/>
-      <c r="P1184" s="2"/>
-      <c r="Q1184" s="2"/>
-      <c r="R1184" s="2"/>
-      <c r="S1184" s="2"/>
-      <c r="T1184" s="2"/>
-      <c r="U1184" s="2"/>
-      <c r="V1184" s="2"/>
-      <c r="W1184" s="2"/>
-      <c r="X1184" s="2"/>
-      <c r="Y1184" s="2"/>
-      <c r="Z1184" s="2"/>
-    </row>
-    <row r="1185" spans="1:26">
-      <c r="A1185" s="2"/>
-      <c r="B1185" s="2"/>
-      <c r="C1185" s="2"/>
-      <c r="D1185" s="2"/>
-      <c r="E1185" s="2"/>
-      <c r="F1185" s="2"/>
-      <c r="G1185" s="2"/>
-      <c r="H1185" s="2"/>
-      <c r="I1185" s="2"/>
-      <c r="J1185" s="2"/>
-      <c r="K1185" s="2"/>
-      <c r="L1185" s="2"/>
-      <c r="M1185" s="2"/>
-      <c r="N1185" s="2"/>
-      <c r="O1185" s="2"/>
-      <c r="P1185" s="2"/>
-      <c r="Q1185" s="2"/>
-      <c r="R1185" s="2"/>
-      <c r="S1185" s="2"/>
-      <c r="T1185" s="2"/>
-      <c r="U1185" s="2"/>
-      <c r="V1185" s="2"/>
-      <c r="W1185" s="2"/>
-      <c r="X1185" s="2"/>
-      <c r="Y1185" s="2"/>
-      <c r="Z1185" s="2"/>
-    </row>
-    <row r="1186" spans="1:26">
-      <c r="A1186" s="2"/>
-      <c r="B1186" s="2"/>
-      <c r="C1186" s="2"/>
-      <c r="D1186" s="2"/>
-      <c r="E1186" s="2"/>
-      <c r="F1186" s="2"/>
-      <c r="G1186" s="2"/>
-      <c r="H1186" s="2"/>
-      <c r="I1186" s="2"/>
-      <c r="J1186" s="2"/>
-      <c r="K1186" s="2"/>
-      <c r="L1186" s="2"/>
-      <c r="M1186" s="2"/>
-      <c r="N1186" s="2"/>
-      <c r="O1186" s="2"/>
-      <c r="P1186" s="2"/>
-      <c r="Q1186" s="2"/>
-      <c r="R1186" s="2"/>
-      <c r="S1186" s="2"/>
-      <c r="T1186" s="2"/>
-      <c r="U1186" s="2"/>
-      <c r="V1186" s="2"/>
-      <c r="W1186" s="2"/>
-      <c r="X1186" s="2"/>
-      <c r="Y1186" s="2"/>
-      <c r="Z1186" s="2"/>
-    </row>
-    <row r="1187" spans="1:26">
-      <c r="A1187" s="2"/>
-      <c r="B1187" s="2"/>
-      <c r="C1187" s="2"/>
-      <c r="D1187" s="2"/>
-      <c r="E1187" s="2"/>
-      <c r="F1187" s="2"/>
-      <c r="G1187" s="2"/>
-      <c r="H1187" s="2"/>
-      <c r="I1187" s="2"/>
-      <c r="J1187" s="2"/>
-      <c r="K1187" s="2"/>
-      <c r="L1187" s="2"/>
-      <c r="M1187" s="2"/>
-      <c r="N1187" s="2"/>
-      <c r="O1187" s="2"/>
-      <c r="P1187" s="2"/>
-      <c r="Q1187" s="2"/>
-      <c r="R1187" s="2"/>
-      <c r="S1187" s="2"/>
-      <c r="T1187" s="2"/>
-      <c r="U1187" s="2"/>
-      <c r="V1187" s="2"/>
-      <c r="W1187" s="2"/>
-      <c r="X1187" s="2"/>
-      <c r="Y1187" s="2"/>
-      <c r="Z1187" s="2"/>
-    </row>
-    <row r="1188" spans="1:26">
-      <c r="A1188" s="2"/>
-      <c r="B1188" s="2"/>
-      <c r="C1188" s="2"/>
-      <c r="D1188" s="2"/>
-      <c r="E1188" s="2"/>
-      <c r="F1188" s="2"/>
-      <c r="G1188" s="2"/>
-      <c r="H1188" s="2"/>
-      <c r="I1188" s="2"/>
-      <c r="J1188" s="2"/>
-      <c r="K1188" s="2"/>
-      <c r="L1188" s="2"/>
-      <c r="M1188" s="2"/>
-      <c r="N1188" s="2"/>
-      <c r="O1188" s="2"/>
-      <c r="P1188" s="2"/>
-      <c r="Q1188" s="2"/>
-      <c r="R1188" s="2"/>
-      <c r="S1188" s="2"/>
-      <c r="T1188" s="2"/>
-      <c r="U1188" s="2"/>
-      <c r="V1188" s="2"/>
-      <c r="W1188" s="2"/>
-      <c r="X1188" s="2"/>
-      <c r="Y1188" s="2"/>
-      <c r="Z1188" s="2"/>
-    </row>
-    <row r="1189" spans="1:26">
-      <c r="A1189" s="2"/>
-      <c r="B1189" s="2"/>
-      <c r="C1189" s="2"/>
-      <c r="D1189" s="2"/>
-      <c r="E1189" s="2"/>
-      <c r="F1189" s="2"/>
-      <c r="G1189" s="2"/>
-      <c r="H1189" s="2"/>
-      <c r="I1189" s="2"/>
-      <c r="J1189" s="2"/>
-      <c r="K1189" s="2"/>
-      <c r="L1189" s="2"/>
-      <c r="M1189" s="2"/>
-      <c r="N1189" s="2"/>
-      <c r="O1189" s="2"/>
-      <c r="P1189" s="2"/>
-      <c r="Q1189" s="2"/>
-      <c r="R1189" s="2"/>
-      <c r="S1189" s="2"/>
-      <c r="T1189" s="2"/>
-      <c r="U1189" s="2"/>
-      <c r="V1189" s="2"/>
-      <c r="W1189" s="2"/>
-      <c r="X1189" s="2"/>
-      <c r="Y1189" s="2"/>
-      <c r="Z1189" s="2"/>
-    </row>
-    <row r="1190" spans="1:26">
-      <c r="A1190" s="2"/>
-      <c r="B1190" s="2"/>
-      <c r="C1190" s="2"/>
-      <c r="D1190" s="2"/>
-      <c r="E1190" s="2"/>
-      <c r="F1190" s="2"/>
-      <c r="G1190" s="2"/>
-      <c r="H1190" s="2"/>
-      <c r="I1190" s="2"/>
-      <c r="J1190" s="2"/>
-      <c r="K1190" s="2"/>
-      <c r="L1190" s="2"/>
-      <c r="M1190" s="2"/>
-      <c r="N1190" s="2"/>
-      <c r="O1190" s="2"/>
-      <c r="P1190" s="2"/>
-      <c r="Q1190" s="2"/>
-      <c r="R1190" s="2"/>
-      <c r="S1190" s="2"/>
-      <c r="T1190" s="2"/>
-      <c r="U1190" s="2"/>
-      <c r="V1190" s="2"/>
-      <c r="W1190" s="2"/>
-      <c r="X1190" s="2"/>
-      <c r="Y1190" s="2"/>
-      <c r="Z1190" s="2"/>
-    </row>
-    <row r="1191" spans="1:26">
-      <c r="A1191" s="2"/>
-      <c r="B1191" s="2"/>
-      <c r="C1191" s="2"/>
-      <c r="D1191" s="2"/>
-      <c r="E1191" s="2"/>
-      <c r="F1191" s="2"/>
-      <c r="G1191" s="2"/>
-      <c r="H1191" s="2"/>
-      <c r="I1191" s="2"/>
-      <c r="J1191" s="2"/>
-      <c r="K1191" s="2"/>
-      <c r="L1191" s="2"/>
-      <c r="M1191" s="2"/>
-      <c r="N1191" s="2"/>
-      <c r="O1191" s="2"/>
-      <c r="P1191" s="2"/>
-      <c r="Q1191" s="2"/>
-      <c r="R1191" s="2"/>
-      <c r="S1191" s="2"/>
-      <c r="T1191" s="2"/>
-      <c r="U1191" s="2"/>
-      <c r="V1191" s="2"/>
-      <c r="W1191" s="2"/>
-      <c r="X1191" s="2"/>
-      <c r="Y1191" s="2"/>
-      <c r="Z1191" s="2"/>
-    </row>
-    <row r="1192" spans="1:26">
-      <c r="A1192" s="2"/>
-      <c r="B1192" s="2"/>
-      <c r="C1192" s="2"/>
-      <c r="D1192" s="2"/>
-      <c r="E1192" s="2"/>
-      <c r="F1192" s="2"/>
-      <c r="G1192" s="2"/>
-      <c r="H1192" s="2"/>
-      <c r="I1192" s="2"/>
-      <c r="J1192" s="2"/>
-      <c r="K1192" s="2"/>
-      <c r="L1192" s="2"/>
-      <c r="M1192" s="2"/>
-      <c r="N1192" s="2"/>
-      <c r="O1192" s="2"/>
-      <c r="P1192" s="2"/>
-      <c r="Q1192" s="2"/>
-      <c r="R1192" s="2"/>
-      <c r="S1192" s="2"/>
-      <c r="T1192" s="2"/>
-      <c r="U1192" s="2"/>
-      <c r="V1192" s="2"/>
-      <c r="W1192" s="2"/>
-      <c r="X1192" s="2"/>
-      <c r="Y1192" s="2"/>
-      <c r="Z1192" s="2"/>
-    </row>
-    <row r="1193" spans="1:26">
-      <c r="A1193" s="2"/>
-      <c r="B1193" s="2"/>
-      <c r="C1193" s="2"/>
-      <c r="D1193" s="2"/>
-      <c r="E1193" s="2"/>
-      <c r="F1193" s="2"/>
-      <c r="G1193" s="2"/>
-      <c r="H1193" s="2"/>
-      <c r="I1193" s="2"/>
-      <c r="J1193" s="2"/>
-      <c r="K1193" s="2"/>
-      <c r="L1193" s="2"/>
-      <c r="M1193" s="2"/>
-      <c r="N1193" s="2"/>
-      <c r="O1193" s="2"/>
-      <c r="P1193" s="2"/>
-      <c r="Q1193" s="2"/>
-      <c r="R1193" s="2"/>
-      <c r="S1193" s="2"/>
-      <c r="T1193" s="2"/>
-      <c r="U1193" s="2"/>
-      <c r="V1193" s="2"/>
-      <c r="W1193" s="2"/>
-      <c r="X1193" s="2"/>
-      <c r="Y1193" s="2"/>
-      <c r="Z1193" s="2"/>
-    </row>
-    <row r="1194" spans="1:26">
-      <c r="A1194" s="2"/>
-      <c r="B1194" s="2"/>
-      <c r="C1194" s="2"/>
-      <c r="D1194" s="2"/>
-      <c r="E1194" s="2"/>
-      <c r="F1194" s="2"/>
-      <c r="G1194" s="2"/>
-      <c r="H1194" s="2"/>
-      <c r="I1194" s="2"/>
-      <c r="J1194" s="2"/>
-      <c r="K1194" s="2"/>
-      <c r="L1194" s="2"/>
-      <c r="M1194" s="2"/>
-      <c r="N1194" s="2"/>
-      <c r="O1194" s="2"/>
-      <c r="P1194" s="2"/>
-      <c r="Q1194" s="2"/>
-      <c r="R1194" s="2"/>
-      <c r="S1194" s="2"/>
-      <c r="T1194" s="2"/>
-      <c r="U1194" s="2"/>
-      <c r="V1194" s="2"/>
-      <c r="W1194" s="2"/>
-      <c r="X1194" s="2"/>
-      <c r="Y1194" s="2"/>
-      <c r="Z1194" s="2"/>
-    </row>
-    <row r="1195" spans="1:26">
-      <c r="A1195" s="2"/>
-      <c r="B1195" s="2"/>
-      <c r="C1195" s="2"/>
-      <c r="D1195" s="2"/>
-      <c r="E1195" s="2"/>
-      <c r="F1195" s="2"/>
-      <c r="G1195" s="2"/>
-      <c r="H1195" s="2"/>
-      <c r="I1195" s="2"/>
-      <c r="J1195" s="2"/>
-      <c r="K1195" s="2"/>
-      <c r="L1195" s="2"/>
-      <c r="M1195" s="2"/>
-      <c r="N1195" s="2"/>
-      <c r="O1195" s="2"/>
-      <c r="P1195" s="2"/>
-      <c r="Q1195" s="2"/>
-      <c r="R1195" s="2"/>
-      <c r="S1195" s="2"/>
-      <c r="T1195" s="2"/>
-      <c r="U1195" s="2"/>
-      <c r="V1195" s="2"/>
-      <c r="W1195" s="2"/>
-      <c r="X1195" s="2"/>
-      <c r="Y1195" s="2"/>
-      <c r="Z1195" s="2"/>
-    </row>
-    <row r="1196" spans="1:26">
-      <c r="A1196" s="2"/>
-      <c r="B1196" s="2"/>
-      <c r="C1196" s="2"/>
-      <c r="D1196" s="2"/>
-      <c r="E1196" s="2"/>
-      <c r="F1196" s="2"/>
-      <c r="G1196" s="2"/>
-      <c r="H1196" s="2"/>
-      <c r="I1196" s="2"/>
-      <c r="J1196" s="2"/>
-      <c r="K1196" s="2"/>
-      <c r="L1196" s="2"/>
-      <c r="M1196" s="2"/>
-      <c r="N1196" s="2"/>
-      <c r="O1196" s="2"/>
-      <c r="P1196" s="2"/>
-      <c r="Q1196" s="2"/>
-      <c r="R1196" s="2"/>
-      <c r="S1196" s="2"/>
-      <c r="T1196" s="2"/>
-      <c r="U1196" s="2"/>
-      <c r="V1196" s="2"/>
-      <c r="W1196" s="2"/>
-      <c r="X1196" s="2"/>
-      <c r="Y1196" s="2"/>
-      <c r="Z1196" s="2"/>
-    </row>
-    <row r="1197" spans="1:26">
-      <c r="A1197" s="2"/>
-      <c r="B1197" s="2"/>
-      <c r="C1197" s="2"/>
-      <c r="D1197" s="2"/>
-      <c r="E1197" s="2"/>
-      <c r="F1197" s="2"/>
-      <c r="G1197" s="2"/>
-      <c r="H1197" s="2"/>
-      <c r="I1197" s="2"/>
-      <c r="J1197" s="2"/>
-      <c r="K1197" s="2"/>
-      <c r="L1197" s="2"/>
-      <c r="M1197" s="2"/>
-      <c r="N1197" s="2"/>
-      <c r="O1197" s="2"/>
-      <c r="P1197" s="2"/>
-      <c r="Q1197" s="2"/>
-      <c r="R1197" s="2"/>
-      <c r="S1197" s="2"/>
-      <c r="T1197" s="2"/>
-      <c r="U1197" s="2"/>
-      <c r="V1197" s="2"/>
-      <c r="W1197" s="2"/>
-      <c r="X1197" s="2"/>
-      <c r="Y1197" s="2"/>
-      <c r="Z1197" s="2"/>
-    </row>
-    <row r="1198" spans="1:26">
-      <c r="A1198" s="2"/>
-      <c r="B1198" s="2"/>
-      <c r="C1198" s="2"/>
-      <c r="D1198" s="2"/>
-      <c r="E1198" s="2"/>
-      <c r="F1198" s="2"/>
-      <c r="G1198" s="2"/>
-      <c r="H1198" s="2"/>
-      <c r="I1198" s="2"/>
-      <c r="J1198" s="2"/>
-      <c r="K1198" s="2"/>
-      <c r="L1198" s="2"/>
-      <c r="M1198" s="2"/>
-      <c r="N1198" s="2"/>
-      <c r="O1198" s="2"/>
-      <c r="P1198" s="2"/>
-      <c r="Q1198" s="2"/>
-      <c r="R1198" s="2"/>
-      <c r="S1198" s="2"/>
-      <c r="T1198" s="2"/>
-      <c r="U1198" s="2"/>
-      <c r="V1198" s="2"/>
-      <c r="W1198" s="2"/>
-      <c r="X1198" s="2"/>
-      <c r="Y1198" s="2"/>
-      <c r="Z1198" s="2"/>
-    </row>
-    <row r="1199" spans="1:26">
-      <c r="A1199" s="2"/>
-      <c r="B1199" s="2"/>
-      <c r="C1199" s="2"/>
-      <c r="D1199" s="2"/>
-      <c r="E1199" s="2"/>
-      <c r="F1199" s="2"/>
-      <c r="G1199" s="2"/>
-      <c r="H1199" s="2"/>
-      <c r="I1199" s="2"/>
-      <c r="J1199" s="2"/>
-      <c r="K1199" s="2"/>
-      <c r="L1199" s="2"/>
-      <c r="M1199" s="2"/>
-      <c r="N1199" s="2"/>
-      <c r="O1199" s="2"/>
-      <c r="P1199" s="2"/>
-      <c r="Q1199" s="2"/>
-      <c r="R1199" s="2"/>
-      <c r="S1199" s="2"/>
-      <c r="T1199" s="2"/>
-      <c r="U1199" s="2"/>
-      <c r="V1199" s="2"/>
-      <c r="W1199" s="2"/>
-      <c r="X1199" s="2"/>
-      <c r="Y1199" s="2"/>
-      <c r="Z1199" s="2"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
